--- a/dados/_RMSalaExercicio.xlsx
+++ b/dados/_RMSalaExercicio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -260,6 +260,12 @@
   <x:si>
     <x:t xml:space="preserve">17</x:t>
   </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">16:30</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -355,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AK527" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AK527"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AK602" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AK602"/>
   <x:tableColumns count="37">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Hora de início" dataDxfId="3"/>
@@ -35125,11 +35131,4902 @@
       <x:c r="AJ527"/>
       <x:c r="AK527" s="10" t="s"/>
     </x:row>
+    <x:row r="528" hidden="0">
+      <x:c r="A528">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B528" s="2">
+        <x:v>43865.334375</x:v>
+      </x:c>
+      <x:c r="C528" s="2">
+        <x:v>43865.3354513889</x:v>
+      </x:c>
+      <x:c r="D528" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E528" s="10" t="s"/>
+      <x:c r="F528"/>
+      <x:c r="G528" s="10" t="s"/>
+      <x:c r="H528" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I528"/>
+      <x:c r="J528" s="10" t="s"/>
+      <x:c r="K528" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L528"/>
+      <x:c r="M528" s="10" t="s"/>
+      <x:c r="N528" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O528"/>
+      <x:c r="P528" s="10" t="s"/>
+      <x:c r="Q528" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R528"/>
+      <x:c r="S528" s="10" t="s"/>
+      <x:c r="T528" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U528"/>
+      <x:c r="V528" s="10" t="s"/>
+      <x:c r="W528" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X528"/>
+      <x:c r="Y528" s="10" t="s"/>
+      <x:c r="Z528" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA528"/>
+      <x:c r="AB528" s="10" t="s"/>
+      <x:c r="AC528" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD528"/>
+      <x:c r="AE528" s="10" t="s"/>
+      <x:c r="AF528" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG528"/>
+      <x:c r="AH528" s="10" t="s"/>
+      <x:c r="AI528" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ528"/>
+      <x:c r="AK528" s="10" t="s"/>
+    </x:row>
+    <x:row r="529" hidden="0">
+      <x:c r="A529">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B529" s="2">
+        <x:v>43865.3357638889</x:v>
+      </x:c>
+      <x:c r="C529" s="2">
+        <x:v>43865.3755439815</x:v>
+      </x:c>
+      <x:c r="D529" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E529" s="10" t="s"/>
+      <x:c r="F529"/>
+      <x:c r="G529" s="10" t="s"/>
+      <x:c r="H529" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I529"/>
+      <x:c r="J529" s="10" t="s"/>
+      <x:c r="K529" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L529"/>
+      <x:c r="M529" s="10" t="s"/>
+      <x:c r="N529" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O529"/>
+      <x:c r="P529" s="10" t="s"/>
+      <x:c r="Q529" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R529"/>
+      <x:c r="S529" s="10" t="s"/>
+      <x:c r="T529" s="10" t="s"/>
+      <x:c r="U529"/>
+      <x:c r="V529" s="10" t="s"/>
+      <x:c r="W529" s="10" t="s"/>
+      <x:c r="X529"/>
+      <x:c r="Y529" s="10" t="s"/>
+      <x:c r="Z529" s="10" t="s"/>
+      <x:c r="AA529"/>
+      <x:c r="AB529" s="10" t="s"/>
+      <x:c r="AC529" s="10" t="s"/>
+      <x:c r="AD529"/>
+      <x:c r="AE529" s="10" t="s"/>
+      <x:c r="AF529" s="10" t="s"/>
+      <x:c r="AG529"/>
+      <x:c r="AH529" s="10" t="s"/>
+      <x:c r="AI529" s="10" t="s"/>
+      <x:c r="AJ529"/>
+      <x:c r="AK529" s="10" t="s"/>
+    </x:row>
+    <x:row r="530" hidden="0">
+      <x:c r="A530">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B530" s="2">
+        <x:v>43865.3755671296</x:v>
+      </x:c>
+      <x:c r="C530" s="2">
+        <x:v>43865.4278587963</x:v>
+      </x:c>
+      <x:c r="D530" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E530" s="10" t="s"/>
+      <x:c r="F530"/>
+      <x:c r="G530" s="10" t="s"/>
+      <x:c r="H530" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I530"/>
+      <x:c r="J530" s="10" t="s"/>
+      <x:c r="K530" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L530"/>
+      <x:c r="M530" s="10" t="s"/>
+      <x:c r="N530" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O530"/>
+      <x:c r="P530" s="10" t="s"/>
+      <x:c r="Q530" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R530"/>
+      <x:c r="S530" s="10" t="s"/>
+      <x:c r="T530" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U530"/>
+      <x:c r="V530" s="10" t="s"/>
+      <x:c r="W530" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X530"/>
+      <x:c r="Y530" s="10" t="s"/>
+      <x:c r="Z530" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA530"/>
+      <x:c r="AB530" s="10" t="s"/>
+      <x:c r="AC530" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD530"/>
+      <x:c r="AE530" s="10" t="s"/>
+      <x:c r="AF530" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG530"/>
+      <x:c r="AH530" s="10" t="s"/>
+      <x:c r="AI530" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ530"/>
+      <x:c r="AK530" s="10" t="s"/>
+    </x:row>
+    <x:row r="531" hidden="0">
+      <x:c r="A531">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B531" s="2">
+        <x:v>43865.427974537</x:v>
+      </x:c>
+      <x:c r="C531" s="2">
+        <x:v>43865.4594675926</x:v>
+      </x:c>
+      <x:c r="D531" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E531" s="10" t="s"/>
+      <x:c r="F531"/>
+      <x:c r="G531" s="10" t="s"/>
+      <x:c r="H531" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I531"/>
+      <x:c r="J531" s="10" t="s"/>
+      <x:c r="K531" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L531"/>
+      <x:c r="M531" s="10" t="s"/>
+      <x:c r="N531" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O531"/>
+      <x:c r="P531" s="10" t="s"/>
+      <x:c r="Q531" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R531"/>
+      <x:c r="S531" s="10" t="s"/>
+      <x:c r="T531" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U531"/>
+      <x:c r="V531" s="10" t="s"/>
+      <x:c r="W531" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X531"/>
+      <x:c r="Y531" s="10" t="s"/>
+      <x:c r="Z531" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AA531"/>
+      <x:c r="AB531" s="10" t="s"/>
+      <x:c r="AC531" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD531"/>
+      <x:c r="AE531" s="10" t="s"/>
+      <x:c r="AF531" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG531"/>
+      <x:c r="AH531" s="10" t="s"/>
+      <x:c r="AI531" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ531"/>
+      <x:c r="AK531" s="10" t="s"/>
+    </x:row>
+    <x:row r="532" hidden="0">
+      <x:c r="A532">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B532" s="2">
+        <x:v>43865.4595138889</x:v>
+      </x:c>
+      <x:c r="C532" s="2">
+        <x:v>43865.5007638889</x:v>
+      </x:c>
+      <x:c r="D532" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E532" s="10" t="s"/>
+      <x:c r="F532"/>
+      <x:c r="G532" s="10" t="s"/>
+      <x:c r="H532" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I532"/>
+      <x:c r="J532" s="10" t="s"/>
+      <x:c r="K532" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L532"/>
+      <x:c r="M532" s="10" t="s"/>
+      <x:c r="N532" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O532"/>
+      <x:c r="P532" s="10" t="s"/>
+      <x:c r="Q532" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R532"/>
+      <x:c r="S532" s="10" t="s"/>
+      <x:c r="T532" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U532"/>
+      <x:c r="V532" s="10" t="s"/>
+      <x:c r="W532" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X532"/>
+      <x:c r="Y532" s="10" t="s"/>
+      <x:c r="Z532" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA532"/>
+      <x:c r="AB532" s="10" t="s"/>
+      <x:c r="AC532" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD532"/>
+      <x:c r="AE532" s="10" t="s"/>
+      <x:c r="AF532" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG532"/>
+      <x:c r="AH532" s="10" t="s"/>
+      <x:c r="AI532" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ532"/>
+      <x:c r="AK532" s="10" t="s"/>
+    </x:row>
+    <x:row r="533" hidden="0">
+      <x:c r="A533">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B533" s="2">
+        <x:v>43865.5914930556</x:v>
+      </x:c>
+      <x:c r="C533" s="2">
+        <x:v>43865.5917476852</x:v>
+      </x:c>
+      <x:c r="D533" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E533" s="10" t="s"/>
+      <x:c r="F533"/>
+      <x:c r="G533" s="10" t="s"/>
+      <x:c r="H533" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I533"/>
+      <x:c r="J533" s="10" t="s"/>
+      <x:c r="K533" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="L533"/>
+      <x:c r="M533" s="10" t="s"/>
+      <x:c r="N533" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O533"/>
+      <x:c r="P533" s="10" t="s"/>
+      <x:c r="Q533" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R533"/>
+      <x:c r="S533" s="10" t="s"/>
+      <x:c r="T533" s="10" t="s"/>
+      <x:c r="U533"/>
+      <x:c r="V533" s="10" t="s"/>
+      <x:c r="W533" s="10" t="s"/>
+      <x:c r="X533"/>
+      <x:c r="Y533" s="10" t="s"/>
+      <x:c r="Z533" s="10" t="s"/>
+      <x:c r="AA533"/>
+      <x:c r="AB533" s="10" t="s"/>
+      <x:c r="AC533" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD533"/>
+      <x:c r="AE533" s="10" t="s"/>
+      <x:c r="AF533" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG533"/>
+      <x:c r="AH533" s="10" t="s"/>
+      <x:c r="AI533" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ533"/>
+      <x:c r="AK533" s="10" t="s"/>
+    </x:row>
+    <x:row r="534" hidden="0">
+      <x:c r="A534">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B534" s="2">
+        <x:v>43865.6025347222</x:v>
+      </x:c>
+      <x:c r="C534" s="2">
+        <x:v>43865.6678819444</x:v>
+      </x:c>
+      <x:c r="D534" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E534" s="10" t="s"/>
+      <x:c r="F534"/>
+      <x:c r="G534" s="10" t="s"/>
+      <x:c r="H534" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I534"/>
+      <x:c r="J534" s="10" t="s"/>
+      <x:c r="K534" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L534"/>
+      <x:c r="M534" s="10" t="s"/>
+      <x:c r="N534" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O534"/>
+      <x:c r="P534" s="10" t="s"/>
+      <x:c r="Q534" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R534"/>
+      <x:c r="S534" s="10" t="s"/>
+      <x:c r="T534" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U534"/>
+      <x:c r="V534" s="10" t="s"/>
+      <x:c r="W534" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X534"/>
+      <x:c r="Y534" s="10" t="s"/>
+      <x:c r="Z534" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA534"/>
+      <x:c r="AB534" s="10" t="s"/>
+      <x:c r="AC534" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD534"/>
+      <x:c r="AE534" s="10" t="s"/>
+      <x:c r="AF534" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG534"/>
+      <x:c r="AH534" s="10" t="s"/>
+      <x:c r="AI534" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ534"/>
+      <x:c r="AK534" s="10" t="s"/>
+    </x:row>
+    <x:row r="535" hidden="0">
+      <x:c r="A535">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B535" s="2">
+        <x:v>43865.6805208333</x:v>
+      </x:c>
+      <x:c r="C535" s="2">
+        <x:v>43865.7090625</x:v>
+      </x:c>
+      <x:c r="D535" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E535" s="10" t="s"/>
+      <x:c r="F535"/>
+      <x:c r="G535" s="10" t="s"/>
+      <x:c r="H535" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I535"/>
+      <x:c r="J535" s="10" t="s"/>
+      <x:c r="K535" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L535"/>
+      <x:c r="M535" s="10" t="s"/>
+      <x:c r="N535" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O535"/>
+      <x:c r="P535" s="10" t="s"/>
+      <x:c r="Q535" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R535"/>
+      <x:c r="S535" s="10" t="s"/>
+      <x:c r="T535" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U535"/>
+      <x:c r="V535" s="10" t="s"/>
+      <x:c r="W535" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X535"/>
+      <x:c r="Y535" s="10" t="s"/>
+      <x:c r="Z535" s="10" t="s"/>
+      <x:c r="AA535"/>
+      <x:c r="AB535" s="10" t="s"/>
+      <x:c r="AC535" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD535"/>
+      <x:c r="AE535" s="10" t="s"/>
+      <x:c r="AF535" s="10" t="s"/>
+      <x:c r="AG535"/>
+      <x:c r="AH535" s="10" t="s"/>
+      <x:c r="AI535" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ535"/>
+      <x:c r="AK535" s="10" t="s"/>
+    </x:row>
+    <x:row r="536" hidden="0">
+      <x:c r="A536">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B536" s="2">
+        <x:v>43865.7090972222</x:v>
+      </x:c>
+      <x:c r="C536" s="2">
+        <x:v>43865.7578240741</x:v>
+      </x:c>
+      <x:c r="D536" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E536" s="10" t="s"/>
+      <x:c r="F536"/>
+      <x:c r="G536" s="10" t="s"/>
+      <x:c r="H536" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I536"/>
+      <x:c r="J536" s="10" t="s"/>
+      <x:c r="K536" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="L536"/>
+      <x:c r="M536" s="10" t="s"/>
+      <x:c r="N536" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O536"/>
+      <x:c r="P536" s="10" t="s"/>
+      <x:c r="Q536" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R536"/>
+      <x:c r="S536" s="10" t="s"/>
+      <x:c r="T536" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="U536"/>
+      <x:c r="V536" s="10" t="s"/>
+      <x:c r="W536" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X536"/>
+      <x:c r="Y536" s="10" t="s"/>
+      <x:c r="Z536" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA536"/>
+      <x:c r="AB536" s="10" t="s"/>
+      <x:c r="AC536" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD536"/>
+      <x:c r="AE536" s="10" t="s"/>
+      <x:c r="AF536" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG536"/>
+      <x:c r="AH536" s="10" t="s"/>
+      <x:c r="AI536" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ536"/>
+      <x:c r="AK536" s="10" t="s"/>
+    </x:row>
+    <x:row r="537" hidden="0">
+      <x:c r="A537">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B537" s="2">
+        <x:v>43865.7784490741</x:v>
+      </x:c>
+      <x:c r="C537" s="2">
+        <x:v>43865.8367361111</x:v>
+      </x:c>
+      <x:c r="D537" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E537" s="10" t="s"/>
+      <x:c r="F537"/>
+      <x:c r="G537" s="10" t="s"/>
+      <x:c r="H537" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I537"/>
+      <x:c r="J537" s="10" t="s"/>
+      <x:c r="K537" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L537"/>
+      <x:c r="M537" s="10" t="s"/>
+      <x:c r="N537" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O537"/>
+      <x:c r="P537" s="10" t="s"/>
+      <x:c r="Q537" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="R537"/>
+      <x:c r="S537" s="10" t="s"/>
+      <x:c r="T537" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U537"/>
+      <x:c r="V537" s="10" t="s"/>
+      <x:c r="W537" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X537"/>
+      <x:c r="Y537" s="10" t="s"/>
+      <x:c r="Z537" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA537"/>
+      <x:c r="AB537" s="10" t="s"/>
+      <x:c r="AC537" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD537"/>
+      <x:c r="AE537" s="10" t="s"/>
+      <x:c r="AF537" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG537"/>
+      <x:c r="AH537" s="10" t="s"/>
+      <x:c r="AI537" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ537"/>
+      <x:c r="AK537" s="10" t="s"/>
+    </x:row>
+    <x:row r="538" hidden="0">
+      <x:c r="A538">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B538" s="2">
+        <x:v>43865.8656481481</x:v>
+      </x:c>
+      <x:c r="C538" s="2">
+        <x:v>43865.8738888889</x:v>
+      </x:c>
+      <x:c r="D538" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E538" s="10" t="s"/>
+      <x:c r="F538"/>
+      <x:c r="G538" s="10" t="s"/>
+      <x:c r="H538" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I538"/>
+      <x:c r="J538" s="10" t="s"/>
+      <x:c r="K538" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L538"/>
+      <x:c r="M538" s="10" t="s"/>
+      <x:c r="N538" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O538"/>
+      <x:c r="P538" s="10" t="s"/>
+      <x:c r="Q538" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R538"/>
+      <x:c r="S538" s="10" t="s"/>
+      <x:c r="T538" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U538"/>
+      <x:c r="V538" s="10" t="s"/>
+      <x:c r="W538" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X538"/>
+      <x:c r="Y538" s="10" t="s"/>
+      <x:c r="Z538" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA538"/>
+      <x:c r="AB538" s="10" t="s"/>
+      <x:c r="AC538" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD538"/>
+      <x:c r="AE538" s="10" t="s"/>
+      <x:c r="AF538" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG538"/>
+      <x:c r="AH538" s="10" t="s"/>
+      <x:c r="AI538" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ538"/>
+      <x:c r="AK538" s="10" t="s"/>
+    </x:row>
+    <x:row r="539" hidden="0">
+      <x:c r="A539">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B539" s="2">
+        <x:v>43865.8761342593</x:v>
+      </x:c>
+      <x:c r="C539" s="2">
+        <x:v>43865.877037037</x:v>
+      </x:c>
+      <x:c r="D539" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E539" s="10" t="s"/>
+      <x:c r="F539"/>
+      <x:c r="G539" s="10" t="s"/>
+      <x:c r="H539" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I539"/>
+      <x:c r="J539" s="10" t="s"/>
+      <x:c r="K539" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L539"/>
+      <x:c r="M539" s="10" t="s"/>
+      <x:c r="N539" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O539"/>
+      <x:c r="P539" s="10" t="s"/>
+      <x:c r="Q539" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R539"/>
+      <x:c r="S539" s="10" t="s"/>
+      <x:c r="T539" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U539"/>
+      <x:c r="V539" s="10" t="s"/>
+      <x:c r="W539" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X539"/>
+      <x:c r="Y539" s="10" t="s"/>
+      <x:c r="Z539" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA539"/>
+      <x:c r="AB539" s="10" t="s"/>
+      <x:c r="AC539" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD539"/>
+      <x:c r="AE539" s="10" t="s"/>
+      <x:c r="AF539" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG539"/>
+      <x:c r="AH539" s="10" t="s"/>
+      <x:c r="AI539" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ539"/>
+      <x:c r="AK539" s="10" t="s"/>
+    </x:row>
+    <x:row r="540" hidden="0">
+      <x:c r="A540">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B540" s="2">
+        <x:v>43866.3142592593</x:v>
+      </x:c>
+      <x:c r="C540" s="2">
+        <x:v>43866.3347222222</x:v>
+      </x:c>
+      <x:c r="D540" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E540" s="10" t="s"/>
+      <x:c r="F540"/>
+      <x:c r="G540" s="10" t="s"/>
+      <x:c r="H540" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I540"/>
+      <x:c r="J540" s="10" t="s"/>
+      <x:c r="K540" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L540"/>
+      <x:c r="M540" s="10" t="s"/>
+      <x:c r="N540" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O540"/>
+      <x:c r="P540" s="10" t="s"/>
+      <x:c r="Q540" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R540"/>
+      <x:c r="S540" s="10" t="s"/>
+      <x:c r="T540" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U540"/>
+      <x:c r="V540" s="10" t="s"/>
+      <x:c r="W540" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X540"/>
+      <x:c r="Y540" s="10" t="s"/>
+      <x:c r="Z540" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA540"/>
+      <x:c r="AB540" s="10" t="s"/>
+      <x:c r="AC540" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD540"/>
+      <x:c r="AE540" s="10" t="s"/>
+      <x:c r="AF540" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG540"/>
+      <x:c r="AH540" s="10" t="s"/>
+      <x:c r="AI540" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ540"/>
+      <x:c r="AK540" s="10" t="s"/>
+    </x:row>
+    <x:row r="541" hidden="0">
+      <x:c r="A541">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B541" s="2">
+        <x:v>43866.3698148148</x:v>
+      </x:c>
+      <x:c r="C541" s="2">
+        <x:v>43866.3758564815</x:v>
+      </x:c>
+      <x:c r="D541" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E541" s="10" t="s"/>
+      <x:c r="F541"/>
+      <x:c r="G541" s="10" t="s"/>
+      <x:c r="H541" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I541"/>
+      <x:c r="J541" s="10" t="s"/>
+      <x:c r="K541" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L541"/>
+      <x:c r="M541" s="10" t="s"/>
+      <x:c r="N541" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O541"/>
+      <x:c r="P541" s="10" t="s"/>
+      <x:c r="Q541" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R541"/>
+      <x:c r="S541" s="10" t="s"/>
+      <x:c r="T541" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U541"/>
+      <x:c r="V541" s="10" t="s"/>
+      <x:c r="W541" s="10" t="s"/>
+      <x:c r="X541"/>
+      <x:c r="Y541" s="10" t="s"/>
+      <x:c r="Z541" s="10" t="s"/>
+      <x:c r="AA541"/>
+      <x:c r="AB541" s="10" t="s"/>
+      <x:c r="AC541" s="10" t="s"/>
+      <x:c r="AD541"/>
+      <x:c r="AE541" s="10" t="s"/>
+      <x:c r="AF541" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG541"/>
+      <x:c r="AH541" s="10" t="s"/>
+      <x:c r="AI541" s="10" t="s"/>
+      <x:c r="AJ541"/>
+      <x:c r="AK541" s="10" t="s"/>
+    </x:row>
+    <x:row r="542" hidden="0">
+      <x:c r="A542">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="B542" s="2">
+        <x:v>43866.3759259259</x:v>
+      </x:c>
+      <x:c r="C542" s="2">
+        <x:v>43866.4176388889</x:v>
+      </x:c>
+      <x:c r="D542" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E542" s="10" t="s"/>
+      <x:c r="F542"/>
+      <x:c r="G542" s="10" t="s"/>
+      <x:c r="H542" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I542"/>
+      <x:c r="J542" s="10" t="s"/>
+      <x:c r="K542" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L542"/>
+      <x:c r="M542" s="10" t="s"/>
+      <x:c r="N542" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O542"/>
+      <x:c r="P542" s="10" t="s"/>
+      <x:c r="Q542" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R542"/>
+      <x:c r="S542" s="10" t="s"/>
+      <x:c r="T542" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U542"/>
+      <x:c r="V542" s="10" t="s"/>
+      <x:c r="W542" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X542"/>
+      <x:c r="Y542" s="10" t="s"/>
+      <x:c r="Z542" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA542"/>
+      <x:c r="AB542" s="10" t="s"/>
+      <x:c r="AC542" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD542"/>
+      <x:c r="AE542" s="10" t="s"/>
+      <x:c r="AF542" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG542"/>
+      <x:c r="AH542" s="10" t="s"/>
+      <x:c r="AI542" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ542"/>
+      <x:c r="AK542" s="10" t="s"/>
+    </x:row>
+    <x:row r="543" hidden="0">
+      <x:c r="A543">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B543" s="2">
+        <x:v>43866.4589814815</x:v>
+      </x:c>
+      <x:c r="C543" s="2">
+        <x:v>43866.4592708333</x:v>
+      </x:c>
+      <x:c r="D543" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E543" s="10" t="s"/>
+      <x:c r="F543"/>
+      <x:c r="G543" s="10" t="s"/>
+      <x:c r="H543" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I543"/>
+      <x:c r="J543" s="10" t="s"/>
+      <x:c r="K543" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L543"/>
+      <x:c r="M543" s="10" t="s"/>
+      <x:c r="N543" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O543"/>
+      <x:c r="P543" s="10" t="s"/>
+      <x:c r="Q543" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R543"/>
+      <x:c r="S543" s="10" t="s"/>
+      <x:c r="T543" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U543"/>
+      <x:c r="V543" s="10" t="s"/>
+      <x:c r="W543" s="10" t="s"/>
+      <x:c r="X543"/>
+      <x:c r="Y543" s="10" t="s"/>
+      <x:c r="Z543" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AA543"/>
+      <x:c r="AB543" s="10" t="s"/>
+      <x:c r="AC543" s="10" t="s"/>
+      <x:c r="AD543"/>
+      <x:c r="AE543" s="10" t="s"/>
+      <x:c r="AF543" s="10" t="s"/>
+      <x:c r="AG543"/>
+      <x:c r="AH543" s="10" t="s"/>
+      <x:c r="AI543" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ543"/>
+      <x:c r="AK543" s="10" t="s"/>
+    </x:row>
+    <x:row r="544" hidden="0">
+      <x:c r="A544">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="B544" s="2">
+        <x:v>43866.4700115741</x:v>
+      </x:c>
+      <x:c r="C544" s="2">
+        <x:v>43866.5010763889</x:v>
+      </x:c>
+      <x:c r="D544" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E544" s="10" t="s"/>
+      <x:c r="F544"/>
+      <x:c r="G544" s="10" t="s"/>
+      <x:c r="H544" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I544"/>
+      <x:c r="J544" s="10" t="s"/>
+      <x:c r="K544" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L544"/>
+      <x:c r="M544" s="10" t="s"/>
+      <x:c r="N544" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O544"/>
+      <x:c r="P544" s="10" t="s"/>
+      <x:c r="Q544" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R544"/>
+      <x:c r="S544" s="10" t="s"/>
+      <x:c r="T544" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U544"/>
+      <x:c r="V544" s="10" t="s"/>
+      <x:c r="W544" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X544"/>
+      <x:c r="Y544" s="10" t="s"/>
+      <x:c r="Z544" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA544"/>
+      <x:c r="AB544" s="10" t="s"/>
+      <x:c r="AC544" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD544"/>
+      <x:c r="AE544" s="10" t="s"/>
+      <x:c r="AF544" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG544"/>
+      <x:c r="AH544" s="10" t="s"/>
+      <x:c r="AI544" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ544"/>
+      <x:c r="AK544" s="10" t="s"/>
+    </x:row>
+    <x:row r="545" hidden="0">
+      <x:c r="A545">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="B545" s="2">
+        <x:v>43866.501099537</x:v>
+      </x:c>
+      <x:c r="C545" s="2">
+        <x:v>43866.5422453704</x:v>
+      </x:c>
+      <x:c r="D545" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E545" s="10" t="s"/>
+      <x:c r="F545"/>
+      <x:c r="G545" s="10" t="s"/>
+      <x:c r="H545" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I545"/>
+      <x:c r="J545" s="10" t="s"/>
+      <x:c r="K545" s="10" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L545"/>
+      <x:c r="M545" s="10" t="s"/>
+      <x:c r="N545" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="O545"/>
+      <x:c r="P545" s="10" t="s"/>
+      <x:c r="Q545" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R545"/>
+      <x:c r="S545" s="10" t="s"/>
+      <x:c r="T545" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="U545"/>
+      <x:c r="V545" s="10" t="s"/>
+      <x:c r="W545" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X545"/>
+      <x:c r="Y545" s="10" t="s"/>
+      <x:c r="Z545" s="10" t="s"/>
+      <x:c r="AA545"/>
+      <x:c r="AB545" s="10" t="s"/>
+      <x:c r="AC545" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD545"/>
+      <x:c r="AE545" s="10" t="s"/>
+      <x:c r="AF545" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG545"/>
+      <x:c r="AH545" s="10" t="s"/>
+      <x:c r="AI545" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ545"/>
+      <x:c r="AK545" s="10" t="s"/>
+    </x:row>
+    <x:row r="546" hidden="0">
+      <x:c r="A546">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="B546" s="2">
+        <x:v>43866.5423032407</x:v>
+      </x:c>
+      <x:c r="C546" s="2">
+        <x:v>43866.5428009259</x:v>
+      </x:c>
+      <x:c r="D546" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E546" s="10" t="s"/>
+      <x:c r="F546"/>
+      <x:c r="G546" s="10" t="s"/>
+      <x:c r="H546" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I546"/>
+      <x:c r="J546" s="10" t="s"/>
+      <x:c r="K546" s="10" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L546"/>
+      <x:c r="M546" s="10" t="s"/>
+      <x:c r="N546" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O546"/>
+      <x:c r="P546" s="10" t="s"/>
+      <x:c r="Q546" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R546"/>
+      <x:c r="S546" s="10" t="s"/>
+      <x:c r="T546" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U546"/>
+      <x:c r="V546" s="10" t="s"/>
+      <x:c r="W546" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X546"/>
+      <x:c r="Y546" s="10" t="s"/>
+      <x:c r="Z546" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA546"/>
+      <x:c r="AB546" s="10" t="s"/>
+      <x:c r="AC546" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD546"/>
+      <x:c r="AE546" s="10" t="s"/>
+      <x:c r="AF546" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG546"/>
+      <x:c r="AH546" s="10" t="s"/>
+      <x:c r="AI546" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ546"/>
+      <x:c r="AK546" s="10" t="s"/>
+    </x:row>
+    <x:row r="547" hidden="0">
+      <x:c r="A547">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="B547" s="2">
+        <x:v>43866.5428356482</x:v>
+      </x:c>
+      <x:c r="C547" s="2">
+        <x:v>43866.5844212963</x:v>
+      </x:c>
+      <x:c r="D547" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E547" s="10" t="s"/>
+      <x:c r="F547"/>
+      <x:c r="G547" s="10" t="s"/>
+      <x:c r="H547" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I547"/>
+      <x:c r="J547" s="10" t="s"/>
+      <x:c r="K547" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="L547"/>
+      <x:c r="M547" s="10" t="s"/>
+      <x:c r="N547" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O547"/>
+      <x:c r="P547" s="10" t="s"/>
+      <x:c r="Q547" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R547"/>
+      <x:c r="S547" s="10" t="s"/>
+      <x:c r="T547" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U547"/>
+      <x:c r="V547" s="10" t="s"/>
+      <x:c r="W547" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X547"/>
+      <x:c r="Y547" s="10" t="s"/>
+      <x:c r="Z547" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA547"/>
+      <x:c r="AB547" s="10" t="s"/>
+      <x:c r="AC547" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD547"/>
+      <x:c r="AE547" s="10" t="s"/>
+      <x:c r="AF547" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG547"/>
+      <x:c r="AH547" s="10" t="s"/>
+      <x:c r="AI547" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ547"/>
+      <x:c r="AK547" s="10" t="s"/>
+    </x:row>
+    <x:row r="548" hidden="0">
+      <x:c r="A548">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B548" s="2">
+        <x:v>43866.5844560185</x:v>
+      </x:c>
+      <x:c r="C548" s="2">
+        <x:v>43866.6235300926</x:v>
+      </x:c>
+      <x:c r="D548" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E548" s="10" t="s"/>
+      <x:c r="F548"/>
+      <x:c r="G548" s="10" t="s"/>
+      <x:c r="H548" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I548"/>
+      <x:c r="J548" s="10" t="s"/>
+      <x:c r="K548" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="L548"/>
+      <x:c r="M548" s="10" t="s"/>
+      <x:c r="N548" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O548"/>
+      <x:c r="P548" s="10" t="s"/>
+      <x:c r="Q548" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R548"/>
+      <x:c r="S548" s="10" t="s"/>
+      <x:c r="T548" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U548"/>
+      <x:c r="V548" s="10" t="s"/>
+      <x:c r="W548" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X548"/>
+      <x:c r="Y548" s="10" t="s"/>
+      <x:c r="Z548" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA548"/>
+      <x:c r="AB548" s="10" t="s"/>
+      <x:c r="AC548" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD548"/>
+      <x:c r="AE548" s="10" t="s"/>
+      <x:c r="AF548" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG548"/>
+      <x:c r="AH548" s="10" t="s"/>
+      <x:c r="AI548" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ548"/>
+      <x:c r="AK548" s="10" t="s"/>
+    </x:row>
+    <x:row r="549" hidden="0">
+      <x:c r="A549">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B549" s="2">
+        <x:v>43866.6241435185</x:v>
+      </x:c>
+      <x:c r="C549" s="2">
+        <x:v>43866.6833101852</x:v>
+      </x:c>
+      <x:c r="D549" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E549" s="10" t="s"/>
+      <x:c r="F549"/>
+      <x:c r="G549" s="10" t="s"/>
+      <x:c r="H549" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I549"/>
+      <x:c r="J549" s="10" t="s"/>
+      <x:c r="K549" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="L549"/>
+      <x:c r="M549" s="10" t="s"/>
+      <x:c r="N549" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="O549"/>
+      <x:c r="P549" s="10" t="s"/>
+      <x:c r="Q549" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R549"/>
+      <x:c r="S549" s="10" t="s"/>
+      <x:c r="T549" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U549"/>
+      <x:c r="V549" s="10" t="s"/>
+      <x:c r="W549" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="X549"/>
+      <x:c r="Y549" s="10" t="s"/>
+      <x:c r="Z549" s="10" t="s"/>
+      <x:c r="AA549"/>
+      <x:c r="AB549" s="10" t="s"/>
+      <x:c r="AC549" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AD549"/>
+      <x:c r="AE549" s="10" t="s"/>
+      <x:c r="AF549" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG549"/>
+      <x:c r="AH549" s="10" t="s"/>
+      <x:c r="AI549" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ549"/>
+      <x:c r="AK549" s="10" t="s"/>
+    </x:row>
+    <x:row r="550" hidden="0">
+      <x:c r="A550">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="B550" s="2">
+        <x:v>43866.6833333333</x:v>
+      </x:c>
+      <x:c r="C550" s="2">
+        <x:v>43866.7095833333</x:v>
+      </x:c>
+      <x:c r="D550" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E550" s="10" t="s"/>
+      <x:c r="F550"/>
+      <x:c r="G550" s="10" t="s"/>
+      <x:c r="H550" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I550"/>
+      <x:c r="J550" s="10" t="s"/>
+      <x:c r="K550" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L550"/>
+      <x:c r="M550" s="10" t="s"/>
+      <x:c r="N550" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O550"/>
+      <x:c r="P550" s="10" t="s"/>
+      <x:c r="Q550" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R550"/>
+      <x:c r="S550" s="10" t="s"/>
+      <x:c r="T550" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U550"/>
+      <x:c r="V550" s="10" t="s"/>
+      <x:c r="W550" s="10" t="s"/>
+      <x:c r="X550"/>
+      <x:c r="Y550" s="10" t="s"/>
+      <x:c r="Z550" s="10" t="s"/>
+      <x:c r="AA550"/>
+      <x:c r="AB550" s="10" t="s"/>
+      <x:c r="AC550" s="10" t="s"/>
+      <x:c r="AD550"/>
+      <x:c r="AE550" s="10" t="s"/>
+      <x:c r="AF550" s="10" t="s"/>
+      <x:c r="AG550"/>
+      <x:c r="AH550" s="10" t="s"/>
+      <x:c r="AI550" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ550"/>
+      <x:c r="AK550" s="10" t="s"/>
+    </x:row>
+    <x:row r="551" hidden="0">
+      <x:c r="A551">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B551" s="2">
+        <x:v>43866.7096180556</x:v>
+      </x:c>
+      <x:c r="C551" s="2">
+        <x:v>43866.7540972222</x:v>
+      </x:c>
+      <x:c r="D551" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E551" s="10" t="s"/>
+      <x:c r="F551"/>
+      <x:c r="G551" s="10" t="s"/>
+      <x:c r="H551" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I551"/>
+      <x:c r="J551" s="10" t="s"/>
+      <x:c r="K551" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="L551"/>
+      <x:c r="M551" s="10" t="s"/>
+      <x:c r="N551" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O551"/>
+      <x:c r="P551" s="10" t="s"/>
+      <x:c r="Q551" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R551"/>
+      <x:c r="S551" s="10" t="s"/>
+      <x:c r="T551" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U551"/>
+      <x:c r="V551" s="10" t="s"/>
+      <x:c r="W551" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X551"/>
+      <x:c r="Y551" s="10" t="s"/>
+      <x:c r="Z551" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA551"/>
+      <x:c r="AB551" s="10" t="s"/>
+      <x:c r="AC551" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AD551"/>
+      <x:c r="AE551" s="10" t="s"/>
+      <x:c r="AF551" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG551"/>
+      <x:c r="AH551" s="10" t="s"/>
+      <x:c r="AI551" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ551"/>
+      <x:c r="AK551" s="10" t="s"/>
+    </x:row>
+    <x:row r="552" hidden="0">
+      <x:c r="A552">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B552" s="2">
+        <x:v>43866.7591782407</x:v>
+      </x:c>
+      <x:c r="C552" s="2">
+        <x:v>43866.7972916667</x:v>
+      </x:c>
+      <x:c r="D552" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E552" s="10" t="s"/>
+      <x:c r="F552"/>
+      <x:c r="G552" s="10" t="s"/>
+      <x:c r="H552" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I552"/>
+      <x:c r="J552" s="10" t="s"/>
+      <x:c r="K552" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L552"/>
+      <x:c r="M552" s="10" t="s"/>
+      <x:c r="N552" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O552"/>
+      <x:c r="P552" s="10" t="s"/>
+      <x:c r="Q552" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R552"/>
+      <x:c r="S552" s="10" t="s"/>
+      <x:c r="T552" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U552"/>
+      <x:c r="V552" s="10" t="s"/>
+      <x:c r="W552" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X552"/>
+      <x:c r="Y552" s="10" t="s"/>
+      <x:c r="Z552" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA552"/>
+      <x:c r="AB552" s="10" t="s"/>
+      <x:c r="AC552" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AD552"/>
+      <x:c r="AE552" s="10" t="s"/>
+      <x:c r="AF552" s="10" t="s"/>
+      <x:c r="AG552"/>
+      <x:c r="AH552" s="10" t="s"/>
+      <x:c r="AI552" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ552"/>
+      <x:c r="AK552" s="10" t="s"/>
+    </x:row>
+    <x:row r="553" hidden="0">
+      <x:c r="A553">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B553" s="2">
+        <x:v>43866.797337963</x:v>
+      </x:c>
+      <x:c r="C553" s="2">
+        <x:v>43866.8423842593</x:v>
+      </x:c>
+      <x:c r="D553" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E553" s="10" t="s"/>
+      <x:c r="F553"/>
+      <x:c r="G553" s="10" t="s"/>
+      <x:c r="H553" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I553"/>
+      <x:c r="J553" s="10" t="s"/>
+      <x:c r="K553" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L553"/>
+      <x:c r="M553" s="10" t="s"/>
+      <x:c r="N553" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O553"/>
+      <x:c r="P553" s="10" t="s"/>
+      <x:c r="Q553" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R553"/>
+      <x:c r="S553" s="10" t="s"/>
+      <x:c r="T553" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="U553"/>
+      <x:c r="V553" s="10" t="s"/>
+      <x:c r="W553" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X553"/>
+      <x:c r="Y553" s="10" t="s"/>
+      <x:c r="Z553" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA553"/>
+      <x:c r="AB553" s="10" t="s"/>
+      <x:c r="AC553" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD553"/>
+      <x:c r="AE553" s="10" t="s"/>
+      <x:c r="AF553" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG553"/>
+      <x:c r="AH553" s="10" t="s"/>
+      <x:c r="AI553" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ553"/>
+      <x:c r="AK553" s="10" t="s"/>
+    </x:row>
+    <x:row r="554" hidden="0">
+      <x:c r="A554">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B554" s="2">
+        <x:v>43866.8755902778</x:v>
+      </x:c>
+      <x:c r="C554" s="2">
+        <x:v>43866.8772106481</x:v>
+      </x:c>
+      <x:c r="D554" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E554" s="10" t="s"/>
+      <x:c r="F554"/>
+      <x:c r="G554" s="10" t="s"/>
+      <x:c r="H554" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I554"/>
+      <x:c r="J554" s="10" t="s"/>
+      <x:c r="K554" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L554"/>
+      <x:c r="M554" s="10" t="s"/>
+      <x:c r="N554" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O554"/>
+      <x:c r="P554" s="10" t="s"/>
+      <x:c r="Q554" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R554"/>
+      <x:c r="S554" s="10" t="s"/>
+      <x:c r="T554" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U554"/>
+      <x:c r="V554" s="10" t="s"/>
+      <x:c r="W554" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X554"/>
+      <x:c r="Y554" s="10" t="s"/>
+      <x:c r="Z554" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA554"/>
+      <x:c r="AB554" s="10" t="s"/>
+      <x:c r="AC554" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD554"/>
+      <x:c r="AE554" s="10" t="s"/>
+      <x:c r="AF554" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG554"/>
+      <x:c r="AH554" s="10" t="s"/>
+      <x:c r="AI554" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ554"/>
+      <x:c r="AK554" s="10" t="s"/>
+    </x:row>
+    <x:row r="555" hidden="0">
+      <x:c r="A555">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B555" s="2">
+        <x:v>43867.3331712963</x:v>
+      </x:c>
+      <x:c r="C555" s="2">
+        <x:v>43867.3341782407</x:v>
+      </x:c>
+      <x:c r="D555" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E555" s="10" t="s"/>
+      <x:c r="F555"/>
+      <x:c r="G555" s="10" t="s"/>
+      <x:c r="H555" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I555"/>
+      <x:c r="J555" s="10" t="s"/>
+      <x:c r="K555" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L555"/>
+      <x:c r="M555" s="10" t="s"/>
+      <x:c r="N555" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O555"/>
+      <x:c r="P555" s="10" t="s"/>
+      <x:c r="Q555" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R555"/>
+      <x:c r="S555" s="10" t="s"/>
+      <x:c r="T555" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U555"/>
+      <x:c r="V555" s="10" t="s"/>
+      <x:c r="W555" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X555"/>
+      <x:c r="Y555" s="10" t="s"/>
+      <x:c r="Z555" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA555"/>
+      <x:c r="AB555" s="10" t="s"/>
+      <x:c r="AC555" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD555"/>
+      <x:c r="AE555" s="10" t="s"/>
+      <x:c r="AF555" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG555"/>
+      <x:c r="AH555" s="10" t="s"/>
+      <x:c r="AI555" s="10" t="s"/>
+      <x:c r="AJ555"/>
+      <x:c r="AK555" s="10" t="s"/>
+    </x:row>
+    <x:row r="556" hidden="0">
+      <x:c r="A556">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="B556" s="2">
+        <x:v>43867.3759722222</x:v>
+      </x:c>
+      <x:c r="C556" s="2">
+        <x:v>43867.3763773148</x:v>
+      </x:c>
+      <x:c r="D556" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E556" s="10" t="s"/>
+      <x:c r="F556"/>
+      <x:c r="G556" s="10" t="s"/>
+      <x:c r="H556" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I556"/>
+      <x:c r="J556" s="10" t="s"/>
+      <x:c r="K556" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L556"/>
+      <x:c r="M556" s="10" t="s"/>
+      <x:c r="N556" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O556"/>
+      <x:c r="P556" s="10" t="s"/>
+      <x:c r="Q556" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R556"/>
+      <x:c r="S556" s="10" t="s"/>
+      <x:c r="T556" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U556"/>
+      <x:c r="V556" s="10" t="s"/>
+      <x:c r="W556" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X556"/>
+      <x:c r="Y556" s="10" t="s"/>
+      <x:c r="Z556" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA556"/>
+      <x:c r="AB556" s="10" t="s"/>
+      <x:c r="AC556" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD556"/>
+      <x:c r="AE556" s="10" t="s"/>
+      <x:c r="AF556" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG556"/>
+      <x:c r="AH556" s="10" t="s"/>
+      <x:c r="AI556" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ556"/>
+      <x:c r="AK556" s="10" t="s"/>
+    </x:row>
+    <x:row r="557" hidden="0">
+      <x:c r="A557">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B557" s="2">
+        <x:v>43867.4172222222</x:v>
+      </x:c>
+      <x:c r="C557" s="2">
+        <x:v>43867.4180555556</x:v>
+      </x:c>
+      <x:c r="D557" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E557" s="10" t="s"/>
+      <x:c r="F557"/>
+      <x:c r="G557" s="10" t="s"/>
+      <x:c r="H557" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I557"/>
+      <x:c r="J557" s="10" t="s"/>
+      <x:c r="K557" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L557"/>
+      <x:c r="M557" s="10" t="s"/>
+      <x:c r="N557" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O557"/>
+      <x:c r="P557" s="10" t="s"/>
+      <x:c r="Q557" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R557"/>
+      <x:c r="S557" s="10" t="s"/>
+      <x:c r="T557" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U557"/>
+      <x:c r="V557" s="10" t="s"/>
+      <x:c r="W557" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X557"/>
+      <x:c r="Y557" s="10" t="s"/>
+      <x:c r="Z557" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA557"/>
+      <x:c r="AB557" s="10" t="s"/>
+      <x:c r="AC557" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD557"/>
+      <x:c r="AE557" s="10" t="s"/>
+      <x:c r="AF557" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG557"/>
+      <x:c r="AH557" s="10" t="s"/>
+      <x:c r="AI557" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ557"/>
+      <x:c r="AK557" s="10" t="s"/>
+    </x:row>
+    <x:row r="558" hidden="0">
+      <x:c r="A558">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="B558" s="2">
+        <x:v>43867.4181018519</x:v>
+      </x:c>
+      <x:c r="C558" s="2">
+        <x:v>43867.4684375</x:v>
+      </x:c>
+      <x:c r="D558" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E558" s="10" t="s"/>
+      <x:c r="F558"/>
+      <x:c r="G558" s="10" t="s"/>
+      <x:c r="H558" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I558"/>
+      <x:c r="J558" s="10" t="s"/>
+      <x:c r="K558" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L558"/>
+      <x:c r="M558" s="10" t="s"/>
+      <x:c r="N558" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O558"/>
+      <x:c r="P558" s="10" t="s"/>
+      <x:c r="Q558" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R558"/>
+      <x:c r="S558" s="10" t="s"/>
+      <x:c r="T558" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U558"/>
+      <x:c r="V558" s="10" t="s"/>
+      <x:c r="W558" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X558"/>
+      <x:c r="Y558" s="10" t="s"/>
+      <x:c r="Z558" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA558"/>
+      <x:c r="AB558" s="10" t="s"/>
+      <x:c r="AC558" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD558"/>
+      <x:c r="AE558" s="10" t="s"/>
+      <x:c r="AF558" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG558"/>
+      <x:c r="AH558" s="10" t="s"/>
+      <x:c r="AI558" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ558"/>
+      <x:c r="AK558" s="10" t="s"/>
+    </x:row>
+    <x:row r="559" hidden="0">
+      <x:c r="A559">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B559" s="2">
+        <x:v>43867.5012731481</x:v>
+      </x:c>
+      <x:c r="C559" s="2">
+        <x:v>43867.5027430556</x:v>
+      </x:c>
+      <x:c r="D559" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E559" s="10" t="s"/>
+      <x:c r="F559"/>
+      <x:c r="G559" s="10" t="s"/>
+      <x:c r="H559" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I559"/>
+      <x:c r="J559" s="10" t="s"/>
+      <x:c r="K559" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L559"/>
+      <x:c r="M559" s="10" t="s"/>
+      <x:c r="N559" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O559"/>
+      <x:c r="P559" s="10" t="s"/>
+      <x:c r="Q559" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R559"/>
+      <x:c r="S559" s="10" t="s"/>
+      <x:c r="T559" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U559"/>
+      <x:c r="V559" s="10" t="s"/>
+      <x:c r="W559" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X559"/>
+      <x:c r="Y559" s="10" t="s"/>
+      <x:c r="Z559" s="10" t="s"/>
+      <x:c r="AA559"/>
+      <x:c r="AB559" s="10" t="s"/>
+      <x:c r="AC559" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD559"/>
+      <x:c r="AE559" s="10" t="s"/>
+      <x:c r="AF559" s="10" t="s"/>
+      <x:c r="AG559"/>
+      <x:c r="AH559" s="10" t="s"/>
+      <x:c r="AI559" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ559"/>
+      <x:c r="AK559" s="10" t="s"/>
+    </x:row>
+    <x:row r="560" hidden="0">
+      <x:c r="A560">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B560" s="2">
+        <x:v>43867.5027662037</x:v>
+      </x:c>
+      <x:c r="C560" s="2">
+        <x:v>43867.5449421296</x:v>
+      </x:c>
+      <x:c r="D560" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E560" s="10" t="s"/>
+      <x:c r="F560"/>
+      <x:c r="G560" s="10" t="s"/>
+      <x:c r="H560" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I560"/>
+      <x:c r="J560" s="10" t="s"/>
+      <x:c r="K560" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L560"/>
+      <x:c r="M560" s="10" t="s"/>
+      <x:c r="N560" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O560"/>
+      <x:c r="P560" s="10" t="s"/>
+      <x:c r="Q560" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R560"/>
+      <x:c r="S560" s="10" t="s"/>
+      <x:c r="T560" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U560"/>
+      <x:c r="V560" s="10" t="s"/>
+      <x:c r="W560" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X560"/>
+      <x:c r="Y560" s="10" t="s"/>
+      <x:c r="Z560" s="10" t="s"/>
+      <x:c r="AA560"/>
+      <x:c r="AB560" s="10" t="s"/>
+      <x:c r="AC560" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AD560"/>
+      <x:c r="AE560" s="10" t="s"/>
+      <x:c r="AF560" s="10" t="s"/>
+      <x:c r="AG560"/>
+      <x:c r="AH560" s="10" t="s"/>
+      <x:c r="AI560" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ560"/>
+      <x:c r="AK560" s="10" t="s"/>
+    </x:row>
+    <x:row r="561" hidden="0">
+      <x:c r="A561">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B561" s="2">
+        <x:v>43867.5449768519</x:v>
+      </x:c>
+      <x:c r="C561" s="2">
+        <x:v>43867.5870833333</x:v>
+      </x:c>
+      <x:c r="D561" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E561" s="10" t="s"/>
+      <x:c r="F561"/>
+      <x:c r="G561" s="10" t="s"/>
+      <x:c r="H561" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I561"/>
+      <x:c r="J561" s="10" t="s"/>
+      <x:c r="K561" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="L561"/>
+      <x:c r="M561" s="10" t="s"/>
+      <x:c r="N561" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O561"/>
+      <x:c r="P561" s="10" t="s"/>
+      <x:c r="Q561" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R561"/>
+      <x:c r="S561" s="10" t="s"/>
+      <x:c r="T561" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U561"/>
+      <x:c r="V561" s="10" t="s"/>
+      <x:c r="W561" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X561"/>
+      <x:c r="Y561" s="10" t="s"/>
+      <x:c r="Z561" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA561"/>
+      <x:c r="AB561" s="10" t="s"/>
+      <x:c r="AC561" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD561"/>
+      <x:c r="AE561" s="10" t="s"/>
+      <x:c r="AF561" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG561"/>
+      <x:c r="AH561" s="10" t="s"/>
+      <x:c r="AI561" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ561"/>
+      <x:c r="AK561" s="10" t="s"/>
+    </x:row>
+    <x:row r="562" hidden="0">
+      <x:c r="A562">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="B562" s="2">
+        <x:v>43867.5871064815</x:v>
+      </x:c>
+      <x:c r="C562" s="2">
+        <x:v>43867.7108796296</x:v>
+      </x:c>
+      <x:c r="D562" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E562" s="10" t="s"/>
+      <x:c r="F562"/>
+      <x:c r="G562" s="10" t="s"/>
+      <x:c r="H562" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I562"/>
+      <x:c r="J562" s="10" t="s"/>
+      <x:c r="K562" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L562"/>
+      <x:c r="M562" s="10" t="s"/>
+      <x:c r="N562" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O562"/>
+      <x:c r="P562" s="10" t="s"/>
+      <x:c r="Q562" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R562"/>
+      <x:c r="S562" s="10" t="s"/>
+      <x:c r="T562" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U562"/>
+      <x:c r="V562" s="10" t="s"/>
+      <x:c r="W562" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X562"/>
+      <x:c r="Y562" s="10" t="s"/>
+      <x:c r="Z562" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA562"/>
+      <x:c r="AB562" s="10" t="s"/>
+      <x:c r="AC562" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD562"/>
+      <x:c r="AE562" s="10" t="s"/>
+      <x:c r="AF562" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG562"/>
+      <x:c r="AH562" s="10" t="s"/>
+      <x:c r="AI562" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ562"/>
+      <x:c r="AK562" s="10" t="s"/>
+    </x:row>
+    <x:row r="563" hidden="0">
+      <x:c r="A563">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B563" s="2">
+        <x:v>43867.7331828704</x:v>
+      </x:c>
+      <x:c r="C563" s="2">
+        <x:v>43867.7932407407</x:v>
+      </x:c>
+      <x:c r="D563" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E563" s="10" t="s"/>
+      <x:c r="F563"/>
+      <x:c r="G563" s="10" t="s"/>
+      <x:c r="H563" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I563"/>
+      <x:c r="J563" s="10" t="s"/>
+      <x:c r="K563" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L563"/>
+      <x:c r="M563" s="10" t="s"/>
+      <x:c r="N563" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="O563"/>
+      <x:c r="P563" s="10" t="s"/>
+      <x:c r="Q563" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="R563"/>
+      <x:c r="S563" s="10" t="s"/>
+      <x:c r="T563" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U563"/>
+      <x:c r="V563" s="10" t="s"/>
+      <x:c r="W563" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X563"/>
+      <x:c r="Y563" s="10" t="s"/>
+      <x:c r="Z563" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA563"/>
+      <x:c r="AB563" s="10" t="s"/>
+      <x:c r="AC563" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD563"/>
+      <x:c r="AE563" s="10" t="s"/>
+      <x:c r="AF563" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG563"/>
+      <x:c r="AH563" s="10" t="s"/>
+      <x:c r="AI563" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ563"/>
+      <x:c r="AK563" s="10" t="s"/>
+    </x:row>
+    <x:row r="564" hidden="0">
+      <x:c r="A564">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B564" s="2">
+        <x:v>43867.793275463</x:v>
+      </x:c>
+      <x:c r="C564" s="2">
+        <x:v>43867.8359490741</x:v>
+      </x:c>
+      <x:c r="D564" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E564" s="10" t="s"/>
+      <x:c r="F564"/>
+      <x:c r="G564" s="10" t="s"/>
+      <x:c r="H564" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I564"/>
+      <x:c r="J564" s="10" t="s"/>
+      <x:c r="K564" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L564"/>
+      <x:c r="M564" s="10" t="s"/>
+      <x:c r="N564" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="O564"/>
+      <x:c r="P564" s="10" t="s"/>
+      <x:c r="Q564" s="7" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="R564"/>
+      <x:c r="S564" s="10" t="s"/>
+      <x:c r="T564" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U564"/>
+      <x:c r="V564" s="10" t="s"/>
+      <x:c r="W564" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="X564"/>
+      <x:c r="Y564" s="10" t="s"/>
+      <x:c r="Z564" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA564"/>
+      <x:c r="AB564" s="10" t="s"/>
+      <x:c r="AC564" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AD564"/>
+      <x:c r="AE564" s="10" t="s"/>
+      <x:c r="AF564" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG564"/>
+      <x:c r="AH564" s="10" t="s"/>
+      <x:c r="AI564" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ564"/>
+      <x:c r="AK564" s="10" t="s"/>
+    </x:row>
+    <x:row r="565" hidden="0">
+      <x:c r="A565">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B565" s="2">
+        <x:v>43867.8359837963</x:v>
+      </x:c>
+      <x:c r="C565" s="2">
+        <x:v>43867.8750115741</x:v>
+      </x:c>
+      <x:c r="D565" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E565" s="10" t="s"/>
+      <x:c r="F565"/>
+      <x:c r="G565" s="10" t="s"/>
+      <x:c r="H565" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I565"/>
+      <x:c r="J565" s="10" t="s"/>
+      <x:c r="K565" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L565"/>
+      <x:c r="M565" s="10" t="s"/>
+      <x:c r="N565" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O565"/>
+      <x:c r="P565" s="10" t="s"/>
+      <x:c r="Q565" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R565"/>
+      <x:c r="S565" s="10" t="s"/>
+      <x:c r="T565" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U565"/>
+      <x:c r="V565" s="10" t="s"/>
+      <x:c r="W565" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X565"/>
+      <x:c r="Y565" s="10" t="s"/>
+      <x:c r="Z565" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA565"/>
+      <x:c r="AB565" s="10" t="s"/>
+      <x:c r="AC565" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD565"/>
+      <x:c r="AE565" s="10" t="s"/>
+      <x:c r="AF565" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG565"/>
+      <x:c r="AH565" s="10" t="s"/>
+      <x:c r="AI565" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ565"/>
+      <x:c r="AK565" s="10" t="s"/>
+    </x:row>
+    <x:row r="566" hidden="0">
+      <x:c r="A566">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B566" s="2">
+        <x:v>43868.3366319444</x:v>
+      </x:c>
+      <x:c r="C566" s="2">
+        <x:v>43868.3374652778</x:v>
+      </x:c>
+      <x:c r="D566" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E566" s="10" t="s"/>
+      <x:c r="F566"/>
+      <x:c r="G566" s="10" t="s"/>
+      <x:c r="H566" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I566"/>
+      <x:c r="J566" s="10" t="s"/>
+      <x:c r="K566" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L566"/>
+      <x:c r="M566" s="10" t="s"/>
+      <x:c r="N566" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O566"/>
+      <x:c r="P566" s="10" t="s"/>
+      <x:c r="Q566" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R566"/>
+      <x:c r="S566" s="10" t="s"/>
+      <x:c r="T566" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U566"/>
+      <x:c r="V566" s="10" t="s"/>
+      <x:c r="W566" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X566"/>
+      <x:c r="Y566" s="10" t="s"/>
+      <x:c r="Z566" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA566"/>
+      <x:c r="AB566" s="10" t="s"/>
+      <x:c r="AC566" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD566"/>
+      <x:c r="AE566" s="10" t="s"/>
+      <x:c r="AF566" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG566"/>
+      <x:c r="AH566" s="10" t="s"/>
+      <x:c r="AI566" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ566"/>
+      <x:c r="AK566" s="10" t="s"/>
+    </x:row>
+    <x:row r="567" hidden="0">
+      <x:c r="A567">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B567" s="2">
+        <x:v>43868.3738194444</x:v>
+      </x:c>
+      <x:c r="C567" s="2">
+        <x:v>43868.3742476852</x:v>
+      </x:c>
+      <x:c r="D567" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E567" s="10" t="s"/>
+      <x:c r="F567"/>
+      <x:c r="G567" s="10" t="s"/>
+      <x:c r="H567" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I567"/>
+      <x:c r="J567" s="10" t="s"/>
+      <x:c r="K567" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L567"/>
+      <x:c r="M567" s="10" t="s"/>
+      <x:c r="N567" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O567"/>
+      <x:c r="P567" s="10" t="s"/>
+      <x:c r="Q567" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R567"/>
+      <x:c r="S567" s="10" t="s"/>
+      <x:c r="T567" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U567"/>
+      <x:c r="V567" s="10" t="s"/>
+      <x:c r="W567" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X567"/>
+      <x:c r="Y567" s="10" t="s"/>
+      <x:c r="Z567" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA567"/>
+      <x:c r="AB567" s="10" t="s"/>
+      <x:c r="AC567" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD567"/>
+      <x:c r="AE567" s="10" t="s"/>
+      <x:c r="AF567" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG567"/>
+      <x:c r="AH567" s="10" t="s"/>
+      <x:c r="AI567" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ567"/>
+      <x:c r="AK567" s="10" t="s"/>
+    </x:row>
+    <x:row r="568" hidden="0">
+      <x:c r="A568">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B568" s="2">
+        <x:v>43868.3817013889</x:v>
+      </x:c>
+      <x:c r="C568" s="2">
+        <x:v>43868.4167361111</x:v>
+      </x:c>
+      <x:c r="D568" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E568" s="10" t="s"/>
+      <x:c r="F568"/>
+      <x:c r="G568" s="10" t="s"/>
+      <x:c r="H568" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I568"/>
+      <x:c r="J568" s="10" t="s"/>
+      <x:c r="K568" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L568"/>
+      <x:c r="M568" s="10" t="s"/>
+      <x:c r="N568" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O568"/>
+      <x:c r="P568" s="10" t="s"/>
+      <x:c r="Q568" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R568"/>
+      <x:c r="S568" s="10" t="s"/>
+      <x:c r="T568" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U568"/>
+      <x:c r="V568" s="10" t="s"/>
+      <x:c r="W568" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X568"/>
+      <x:c r="Y568" s="10" t="s"/>
+      <x:c r="Z568" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA568"/>
+      <x:c r="AB568" s="10" t="s"/>
+      <x:c r="AC568" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD568"/>
+      <x:c r="AE568" s="10" t="s"/>
+      <x:c r="AF568" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG568"/>
+      <x:c r="AH568" s="10" t="s"/>
+      <x:c r="AI568" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ568"/>
+      <x:c r="AK568" s="10" t="s"/>
+    </x:row>
+    <x:row r="569" hidden="0">
+      <x:c r="A569">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B569" s="2">
+        <x:v>43868.4167824074</x:v>
+      </x:c>
+      <x:c r="C569" s="2">
+        <x:v>43868.5008449074</x:v>
+      </x:c>
+      <x:c r="D569" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E569" s="10" t="s"/>
+      <x:c r="F569"/>
+      <x:c r="G569" s="10" t="s"/>
+      <x:c r="H569" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I569"/>
+      <x:c r="J569" s="10" t="s"/>
+      <x:c r="K569" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L569"/>
+      <x:c r="M569" s="10" t="s"/>
+      <x:c r="N569" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O569"/>
+      <x:c r="P569" s="10" t="s"/>
+      <x:c r="Q569" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R569"/>
+      <x:c r="S569" s="10" t="s"/>
+      <x:c r="T569" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U569"/>
+      <x:c r="V569" s="10" t="s"/>
+      <x:c r="W569" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X569"/>
+      <x:c r="Y569" s="10" t="s"/>
+      <x:c r="Z569" s="10" t="s"/>
+      <x:c r="AA569"/>
+      <x:c r="AB569" s="10" t="s"/>
+      <x:c r="AC569" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD569"/>
+      <x:c r="AE569" s="10" t="s"/>
+      <x:c r="AF569" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG569"/>
+      <x:c r="AH569" s="10" t="s"/>
+      <x:c r="AI569" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ569"/>
+      <x:c r="AK569" s="10" t="s"/>
+    </x:row>
+    <x:row r="570" hidden="0">
+      <x:c r="A570">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B570" s="2">
+        <x:v>43868.501099537</x:v>
+      </x:c>
+      <x:c r="C570" s="2">
+        <x:v>43868.5015625</x:v>
+      </x:c>
+      <x:c r="D570" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E570" s="10" t="s"/>
+      <x:c r="F570"/>
+      <x:c r="G570" s="10" t="s"/>
+      <x:c r="H570" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I570"/>
+      <x:c r="J570" s="10" t="s"/>
+      <x:c r="K570" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L570"/>
+      <x:c r="M570" s="10" t="s"/>
+      <x:c r="N570" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O570"/>
+      <x:c r="P570" s="10" t="s"/>
+      <x:c r="Q570" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R570"/>
+      <x:c r="S570" s="10" t="s"/>
+      <x:c r="T570" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U570"/>
+      <x:c r="V570" s="10" t="s"/>
+      <x:c r="W570" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="X570"/>
+      <x:c r="Y570" s="10" t="s"/>
+      <x:c r="Z570" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA570"/>
+      <x:c r="AB570" s="10" t="s"/>
+      <x:c r="AC570" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD570"/>
+      <x:c r="AE570" s="10" t="s"/>
+      <x:c r="AF570" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG570"/>
+      <x:c r="AH570" s="10" t="s"/>
+      <x:c r="AI570" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ570"/>
+      <x:c r="AK570" s="10" t="s"/>
+    </x:row>
+    <x:row r="571" hidden="0">
+      <x:c r="A571">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B571" s="2">
+        <x:v>43868.5015972222</x:v>
+      </x:c>
+      <x:c r="C571" s="2">
+        <x:v>43868.5425347222</x:v>
+      </x:c>
+      <x:c r="D571" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E571" s="10" t="s"/>
+      <x:c r="F571"/>
+      <x:c r="G571" s="10" t="s"/>
+      <x:c r="H571" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I571"/>
+      <x:c r="J571" s="10" t="s"/>
+      <x:c r="K571" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L571"/>
+      <x:c r="M571" s="10" t="s"/>
+      <x:c r="N571" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O571"/>
+      <x:c r="P571" s="10" t="s"/>
+      <x:c r="Q571" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R571"/>
+      <x:c r="S571" s="10" t="s"/>
+      <x:c r="T571" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U571"/>
+      <x:c r="V571" s="10" t="s"/>
+      <x:c r="W571" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X571"/>
+      <x:c r="Y571" s="10" t="s"/>
+      <x:c r="Z571" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA571"/>
+      <x:c r="AB571" s="10" t="s"/>
+      <x:c r="AC571" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD571"/>
+      <x:c r="AE571" s="10" t="s"/>
+      <x:c r="AF571" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG571"/>
+      <x:c r="AH571" s="10" t="s"/>
+      <x:c r="AI571" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ571"/>
+      <x:c r="AK571" s="10" t="s"/>
+    </x:row>
+    <x:row r="572" hidden="0">
+      <x:c r="A572">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B572" s="2">
+        <x:v>43868.5898958333</x:v>
+      </x:c>
+      <x:c r="C572" s="2">
+        <x:v>43868.5905555556</x:v>
+      </x:c>
+      <x:c r="D572" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E572" s="10" t="s"/>
+      <x:c r="F572"/>
+      <x:c r="G572" s="10" t="s"/>
+      <x:c r="H572" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I572"/>
+      <x:c r="J572" s="10" t="s"/>
+      <x:c r="K572" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="L572"/>
+      <x:c r="M572" s="10" t="s"/>
+      <x:c r="N572" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O572"/>
+      <x:c r="P572" s="10" t="s"/>
+      <x:c r="Q572" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R572"/>
+      <x:c r="S572" s="10" t="s"/>
+      <x:c r="T572" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U572"/>
+      <x:c r="V572" s="10" t="s"/>
+      <x:c r="W572" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X572"/>
+      <x:c r="Y572" s="10" t="s"/>
+      <x:c r="Z572" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA572"/>
+      <x:c r="AB572" s="10" t="s"/>
+      <x:c r="AC572" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD572"/>
+      <x:c r="AE572" s="10" t="s"/>
+      <x:c r="AF572" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG572"/>
+      <x:c r="AH572" s="10" t="s"/>
+      <x:c r="AI572" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ572"/>
+      <x:c r="AK572" s="10" t="s"/>
+    </x:row>
+    <x:row r="573" hidden="0">
+      <x:c r="A573">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B573" s="2">
+        <x:v>43868.6967476852</x:v>
+      </x:c>
+      <x:c r="C573" s="2">
+        <x:v>43868.6970717593</x:v>
+      </x:c>
+      <x:c r="D573" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E573" s="10" t="s"/>
+      <x:c r="F573"/>
+      <x:c r="G573" s="10" t="s"/>
+      <x:c r="H573" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I573"/>
+      <x:c r="J573" s="10" t="s"/>
+      <x:c r="K573" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L573"/>
+      <x:c r="M573" s="10" t="s"/>
+      <x:c r="N573" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O573"/>
+      <x:c r="P573" s="10" t="s"/>
+      <x:c r="Q573" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R573"/>
+      <x:c r="S573" s="10" t="s"/>
+      <x:c r="T573" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U573"/>
+      <x:c r="V573" s="10" t="s"/>
+      <x:c r="W573" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X573"/>
+      <x:c r="Y573" s="10" t="s"/>
+      <x:c r="Z573" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA573"/>
+      <x:c r="AB573" s="10" t="s"/>
+      <x:c r="AC573" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD573"/>
+      <x:c r="AE573" s="10" t="s"/>
+      <x:c r="AF573" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG573"/>
+      <x:c r="AH573" s="10" t="s"/>
+      <x:c r="AI573" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ573"/>
+      <x:c r="AK573" s="10" t="s"/>
+    </x:row>
+    <x:row r="574" hidden="0">
+      <x:c r="A574">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B574" s="2">
+        <x:v>43868.7623958333</x:v>
+      </x:c>
+      <x:c r="C574" s="2">
+        <x:v>43868.7628819444</x:v>
+      </x:c>
+      <x:c r="D574" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E574" s="10" t="s"/>
+      <x:c r="F574"/>
+      <x:c r="G574" s="10" t="s"/>
+      <x:c r="H574" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I574"/>
+      <x:c r="J574" s="10" t="s"/>
+      <x:c r="K574" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="L574"/>
+      <x:c r="M574" s="10" t="s"/>
+      <x:c r="N574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O574"/>
+      <x:c r="P574" s="10" t="s"/>
+      <x:c r="Q574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R574"/>
+      <x:c r="S574" s="10" t="s"/>
+      <x:c r="T574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U574"/>
+      <x:c r="V574" s="10" t="s"/>
+      <x:c r="W574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X574"/>
+      <x:c r="Y574" s="10" t="s"/>
+      <x:c r="Z574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA574"/>
+      <x:c r="AB574" s="10" t="s"/>
+      <x:c r="AC574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD574"/>
+      <x:c r="AE574" s="10" t="s"/>
+      <x:c r="AF574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG574"/>
+      <x:c r="AH574" s="10" t="s"/>
+      <x:c r="AI574" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ574"/>
+      <x:c r="AK574" s="10" t="s"/>
+    </x:row>
+    <x:row r="575" hidden="0">
+      <x:c r="A575">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B575" s="2">
+        <x:v>43868.8759722222</x:v>
+      </x:c>
+      <x:c r="C575" s="2">
+        <x:v>43868.8764236111</x:v>
+      </x:c>
+      <x:c r="D575" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E575" s="10" t="s"/>
+      <x:c r="F575"/>
+      <x:c r="G575" s="10" t="s"/>
+      <x:c r="H575" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I575"/>
+      <x:c r="J575" s="10" t="s"/>
+      <x:c r="K575" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L575"/>
+      <x:c r="M575" s="10" t="s"/>
+      <x:c r="N575" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O575"/>
+      <x:c r="P575" s="10" t="s"/>
+      <x:c r="Q575" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R575"/>
+      <x:c r="S575" s="10" t="s"/>
+      <x:c r="T575" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U575"/>
+      <x:c r="V575" s="10" t="s"/>
+      <x:c r="W575" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X575"/>
+      <x:c r="Y575" s="10" t="s"/>
+      <x:c r="Z575" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AA575"/>
+      <x:c r="AB575" s="10" t="s"/>
+      <x:c r="AC575" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD575"/>
+      <x:c r="AE575" s="10" t="s"/>
+      <x:c r="AF575" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG575"/>
+      <x:c r="AH575" s="10" t="s"/>
+      <x:c r="AI575" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ575"/>
+      <x:c r="AK575" s="10" t="s"/>
+    </x:row>
+    <x:row r="576" hidden="0">
+      <x:c r="A576">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="B576" s="2">
+        <x:v>43868.8773842593</x:v>
+      </x:c>
+      <x:c r="C576" s="2">
+        <x:v>43868.8785648148</x:v>
+      </x:c>
+      <x:c r="D576" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E576" s="10" t="s"/>
+      <x:c r="F576"/>
+      <x:c r="G576" s="10" t="s"/>
+      <x:c r="H576" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I576"/>
+      <x:c r="J576" s="10" t="s"/>
+      <x:c r="K576" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L576"/>
+      <x:c r="M576" s="10" t="s"/>
+      <x:c r="N576" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O576"/>
+      <x:c r="P576" s="10" t="s"/>
+      <x:c r="Q576" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R576"/>
+      <x:c r="S576" s="10" t="s"/>
+      <x:c r="T576" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U576"/>
+      <x:c r="V576" s="10" t="s"/>
+      <x:c r="W576" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X576"/>
+      <x:c r="Y576" s="10" t="s"/>
+      <x:c r="Z576" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA576"/>
+      <x:c r="AB576" s="10" t="s"/>
+      <x:c r="AC576" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD576"/>
+      <x:c r="AE576" s="10" t="s"/>
+      <x:c r="AF576" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG576"/>
+      <x:c r="AH576" s="10" t="s"/>
+      <x:c r="AI576" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ576"/>
+      <x:c r="AK576" s="10" t="s"/>
+    </x:row>
+    <x:row r="577" hidden="0">
+      <x:c r="A577">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="B577" s="2">
+        <x:v>43869.4244791667</x:v>
+      </x:c>
+      <x:c r="C577" s="2">
+        <x:v>43869.4247106481</x:v>
+      </x:c>
+      <x:c r="D577" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E577" s="10" t="s"/>
+      <x:c r="F577"/>
+      <x:c r="G577" s="10" t="s"/>
+      <x:c r="H577" s="3">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="I577"/>
+      <x:c r="J577" s="10" t="s"/>
+      <x:c r="K577" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L577"/>
+      <x:c r="M577" s="10" t="s"/>
+      <x:c r="N577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O577"/>
+      <x:c r="P577" s="10" t="s"/>
+      <x:c r="Q577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R577"/>
+      <x:c r="S577" s="10" t="s"/>
+      <x:c r="T577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U577"/>
+      <x:c r="V577" s="10" t="s"/>
+      <x:c r="W577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X577"/>
+      <x:c r="Y577" s="10" t="s"/>
+      <x:c r="Z577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA577"/>
+      <x:c r="AB577" s="10" t="s"/>
+      <x:c r="AC577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD577"/>
+      <x:c r="AE577" s="10" t="s"/>
+      <x:c r="AF577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG577"/>
+      <x:c r="AH577" s="10" t="s"/>
+      <x:c r="AI577" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ577"/>
+      <x:c r="AK577" s="10" t="s"/>
+    </x:row>
+    <x:row r="578" hidden="0">
+      <x:c r="A578">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B578" s="2">
+        <x:v>43869.4247453704</x:v>
+      </x:c>
+      <x:c r="C578" s="2">
+        <x:v>43869.4261111111</x:v>
+      </x:c>
+      <x:c r="D578" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E578" s="10" t="s"/>
+      <x:c r="F578"/>
+      <x:c r="G578" s="10" t="s"/>
+      <x:c r="H578" s="3">
+        <x:v>43862</x:v>
+      </x:c>
+      <x:c r="I578"/>
+      <x:c r="J578" s="10" t="s"/>
+      <x:c r="K578" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L578"/>
+      <x:c r="M578" s="10" t="s"/>
+      <x:c r="N578" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O578"/>
+      <x:c r="P578" s="10" t="s"/>
+      <x:c r="Q578" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R578"/>
+      <x:c r="S578" s="10" t="s"/>
+      <x:c r="T578" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U578"/>
+      <x:c r="V578" s="10" t="s"/>
+      <x:c r="W578" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X578"/>
+      <x:c r="Y578" s="10" t="s"/>
+      <x:c r="Z578" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA578"/>
+      <x:c r="AB578" s="10" t="s"/>
+      <x:c r="AC578" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD578"/>
+      <x:c r="AE578" s="10" t="s"/>
+      <x:c r="AF578" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG578"/>
+      <x:c r="AH578" s="10" t="s"/>
+      <x:c r="AI578" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ578"/>
+      <x:c r="AK578" s="10" t="s"/>
+    </x:row>
+    <x:row r="579" hidden="0">
+      <x:c r="A579">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B579" s="2">
+        <x:v>43869.500474537</x:v>
+      </x:c>
+      <x:c r="C579" s="2">
+        <x:v>43869.5018055556</x:v>
+      </x:c>
+      <x:c r="D579" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E579" s="10" t="s"/>
+      <x:c r="F579"/>
+      <x:c r="G579" s="10" t="s"/>
+      <x:c r="H579" s="3">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="I579"/>
+      <x:c r="J579" s="10" t="s"/>
+      <x:c r="K579" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L579"/>
+      <x:c r="M579" s="10" t="s"/>
+      <x:c r="N579" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O579"/>
+      <x:c r="P579" s="10" t="s"/>
+      <x:c r="Q579" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R579"/>
+      <x:c r="S579" s="10" t="s"/>
+      <x:c r="T579" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U579"/>
+      <x:c r="V579" s="10" t="s"/>
+      <x:c r="W579" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X579"/>
+      <x:c r="Y579" s="10" t="s"/>
+      <x:c r="Z579" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA579"/>
+      <x:c r="AB579" s="10" t="s"/>
+      <x:c r="AC579" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD579"/>
+      <x:c r="AE579" s="10" t="s"/>
+      <x:c r="AF579" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG579"/>
+      <x:c r="AH579" s="10" t="s"/>
+      <x:c r="AI579" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ579"/>
+      <x:c r="AK579" s="10" t="s"/>
+    </x:row>
+    <x:row r="580" hidden="0">
+      <x:c r="A580">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B580" s="2">
+        <x:v>43870.3792361111</x:v>
+      </x:c>
+      <x:c r="C580" s="2">
+        <x:v>43870.3797106481</x:v>
+      </x:c>
+      <x:c r="D580" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E580" s="10" t="s"/>
+      <x:c r="F580"/>
+      <x:c r="G580" s="10" t="s"/>
+      <x:c r="H580" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I580"/>
+      <x:c r="J580" s="10" t="s"/>
+      <x:c r="K580" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L580"/>
+      <x:c r="M580" s="10" t="s"/>
+      <x:c r="N580" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O580"/>
+      <x:c r="P580" s="10" t="s"/>
+      <x:c r="Q580" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R580"/>
+      <x:c r="S580" s="10" t="s"/>
+      <x:c r="T580" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U580"/>
+      <x:c r="V580" s="10" t="s"/>
+      <x:c r="W580" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X580"/>
+      <x:c r="Y580" s="10" t="s"/>
+      <x:c r="Z580" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA580"/>
+      <x:c r="AB580" s="10" t="s"/>
+      <x:c r="AC580" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD580"/>
+      <x:c r="AE580" s="10" t="s"/>
+      <x:c r="AF580" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG580"/>
+      <x:c r="AH580" s="10" t="s"/>
+      <x:c r="AI580" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ580"/>
+      <x:c r="AK580" s="10" t="s"/>
+    </x:row>
+    <x:row r="581" hidden="0">
+      <x:c r="A581">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B581" s="2">
+        <x:v>43870.417974537</x:v>
+      </x:c>
+      <x:c r="C581" s="2">
+        <x:v>43870.4186226852</x:v>
+      </x:c>
+      <x:c r="D581" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E581" s="10" t="s"/>
+      <x:c r="F581"/>
+      <x:c r="G581" s="10" t="s"/>
+      <x:c r="H581" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I581"/>
+      <x:c r="J581" s="10" t="s"/>
+      <x:c r="K581" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L581"/>
+      <x:c r="M581" s="10" t="s"/>
+      <x:c r="N581" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O581"/>
+      <x:c r="P581" s="10" t="s"/>
+      <x:c r="Q581" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R581"/>
+      <x:c r="S581" s="10" t="s"/>
+      <x:c r="T581" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U581"/>
+      <x:c r="V581" s="10" t="s"/>
+      <x:c r="W581" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X581"/>
+      <x:c r="Y581" s="10" t="s"/>
+      <x:c r="Z581" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA581"/>
+      <x:c r="AB581" s="10" t="s"/>
+      <x:c r="AC581" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD581"/>
+      <x:c r="AE581" s="10" t="s"/>
+      <x:c r="AF581" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG581"/>
+      <x:c r="AH581" s="10" t="s"/>
+      <x:c r="AI581" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ581"/>
+      <x:c r="AK581" s="10" t="s"/>
+    </x:row>
+    <x:row r="582" hidden="0">
+      <x:c r="A582">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B582" s="2">
+        <x:v>43870.4186689815</x:v>
+      </x:c>
+      <x:c r="C582" s="2">
+        <x:v>43870.4597337963</x:v>
+      </x:c>
+      <x:c r="D582" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E582" s="10" t="s"/>
+      <x:c r="F582"/>
+      <x:c r="G582" s="10" t="s"/>
+      <x:c r="H582" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I582"/>
+      <x:c r="J582" s="10" t="s"/>
+      <x:c r="K582" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L582"/>
+      <x:c r="M582" s="10" t="s"/>
+      <x:c r="N582" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O582"/>
+      <x:c r="P582" s="10" t="s"/>
+      <x:c r="Q582" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R582"/>
+      <x:c r="S582" s="10" t="s"/>
+      <x:c r="T582" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U582"/>
+      <x:c r="V582" s="10" t="s"/>
+      <x:c r="W582" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X582"/>
+      <x:c r="Y582" s="10" t="s"/>
+      <x:c r="Z582" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA582"/>
+      <x:c r="AB582" s="10" t="s"/>
+      <x:c r="AC582" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD582"/>
+      <x:c r="AE582" s="10" t="s"/>
+      <x:c r="AF582" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG582"/>
+      <x:c r="AH582" s="10" t="s"/>
+      <x:c r="AI582" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ582"/>
+      <x:c r="AK582" s="10" t="s"/>
+    </x:row>
+    <x:row r="583" hidden="0">
+      <x:c r="A583">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="B583" s="2">
+        <x:v>43870.4597800926</x:v>
+      </x:c>
+      <x:c r="C583" s="2">
+        <x:v>43870.5023611111</x:v>
+      </x:c>
+      <x:c r="D583" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E583" s="10" t="s"/>
+      <x:c r="F583"/>
+      <x:c r="G583" s="10" t="s"/>
+      <x:c r="H583" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I583"/>
+      <x:c r="J583" s="10" t="s"/>
+      <x:c r="K583" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L583"/>
+      <x:c r="M583" s="10" t="s"/>
+      <x:c r="N583" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O583"/>
+      <x:c r="P583" s="10" t="s"/>
+      <x:c r="Q583" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R583"/>
+      <x:c r="S583" s="10" t="s"/>
+      <x:c r="T583" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U583"/>
+      <x:c r="V583" s="10" t="s"/>
+      <x:c r="W583" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X583"/>
+      <x:c r="Y583" s="10" t="s"/>
+      <x:c r="Z583" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA583"/>
+      <x:c r="AB583" s="10" t="s"/>
+      <x:c r="AC583" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD583"/>
+      <x:c r="AE583" s="10" t="s"/>
+      <x:c r="AF583" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG583"/>
+      <x:c r="AH583" s="10" t="s"/>
+      <x:c r="AI583" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ583"/>
+      <x:c r="AK583" s="10" t="s"/>
+    </x:row>
+    <x:row r="584" hidden="0">
+      <x:c r="A584">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B584" s="2">
+        <x:v>43871.3198263889</x:v>
+      </x:c>
+      <x:c r="C584" s="2">
+        <x:v>43871.3202083333</x:v>
+      </x:c>
+      <x:c r="D584" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E584" s="10" t="s"/>
+      <x:c r="F584"/>
+      <x:c r="G584" s="10" t="s"/>
+      <x:c r="H584" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I584"/>
+      <x:c r="J584" s="10" t="s"/>
+      <x:c r="K584" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L584"/>
+      <x:c r="M584" s="10" t="s"/>
+      <x:c r="N584" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O584"/>
+      <x:c r="P584" s="10" t="s"/>
+      <x:c r="Q584" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R584"/>
+      <x:c r="S584" s="10" t="s"/>
+      <x:c r="T584" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U584"/>
+      <x:c r="V584" s="10" t="s"/>
+      <x:c r="W584" s="10" t="s"/>
+      <x:c r="X584"/>
+      <x:c r="Y584" s="10" t="s"/>
+      <x:c r="Z584" s="10" t="s"/>
+      <x:c r="AA584"/>
+      <x:c r="AB584" s="10" t="s"/>
+      <x:c r="AC584" s="10" t="s"/>
+      <x:c r="AD584"/>
+      <x:c r="AE584" s="10" t="s"/>
+      <x:c r="AF584" s="10" t="s"/>
+      <x:c r="AG584"/>
+      <x:c r="AH584" s="10" t="s"/>
+      <x:c r="AI584" s="10" t="s"/>
+      <x:c r="AJ584"/>
+      <x:c r="AK584" s="10" t="s"/>
+    </x:row>
+    <x:row r="585" hidden="0">
+      <x:c r="A585">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B585" s="2">
+        <x:v>43871.3565393519</x:v>
+      </x:c>
+      <x:c r="C585" s="2">
+        <x:v>43871.3568287037</x:v>
+      </x:c>
+      <x:c r="D585" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E585" s="10" t="s"/>
+      <x:c r="F585"/>
+      <x:c r="G585" s="10" t="s"/>
+      <x:c r="H585" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I585"/>
+      <x:c r="J585" s="10" t="s"/>
+      <x:c r="K585" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L585"/>
+      <x:c r="M585" s="10" t="s"/>
+      <x:c r="N585" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O585"/>
+      <x:c r="P585" s="10" t="s"/>
+      <x:c r="Q585" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R585"/>
+      <x:c r="S585" s="10" t="s"/>
+      <x:c r="T585" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U585"/>
+      <x:c r="V585" s="10" t="s"/>
+      <x:c r="W585" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X585"/>
+      <x:c r="Y585" s="10" t="s"/>
+      <x:c r="Z585" s="10" t="s"/>
+      <x:c r="AA585"/>
+      <x:c r="AB585" s="10" t="s"/>
+      <x:c r="AC585" s="10" t="s"/>
+      <x:c r="AD585"/>
+      <x:c r="AE585" s="10" t="s"/>
+      <x:c r="AF585" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG585"/>
+      <x:c r="AH585" s="10" t="s"/>
+      <x:c r="AI585" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ585"/>
+      <x:c r="AK585" s="10" t="s"/>
+    </x:row>
+    <x:row r="586" hidden="0">
+      <x:c r="A586">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="B586" s="2">
+        <x:v>43871.375787037</x:v>
+      </x:c>
+      <x:c r="C586" s="2">
+        <x:v>43871.3766203704</x:v>
+      </x:c>
+      <x:c r="D586" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E586" s="10" t="s"/>
+      <x:c r="F586"/>
+      <x:c r="G586" s="10" t="s"/>
+      <x:c r="H586" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I586"/>
+      <x:c r="J586" s="10" t="s"/>
+      <x:c r="K586" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L586"/>
+      <x:c r="M586" s="10" t="s"/>
+      <x:c r="N586" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O586"/>
+      <x:c r="P586" s="10" t="s"/>
+      <x:c r="Q586" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R586"/>
+      <x:c r="S586" s="10" t="s"/>
+      <x:c r="T586" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U586"/>
+      <x:c r="V586" s="10" t="s"/>
+      <x:c r="W586" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X586"/>
+      <x:c r="Y586" s="10" t="s"/>
+      <x:c r="Z586" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA586"/>
+      <x:c r="AB586" s="10" t="s"/>
+      <x:c r="AC586" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD586"/>
+      <x:c r="AE586" s="10" t="s"/>
+      <x:c r="AF586" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG586"/>
+      <x:c r="AH586" s="10" t="s"/>
+      <x:c r="AI586" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ586"/>
+      <x:c r="AK586" s="10" t="s"/>
+    </x:row>
+    <x:row r="587" hidden="0">
+      <x:c r="A587">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B587" s="2">
+        <x:v>43871.3766666667</x:v>
+      </x:c>
+      <x:c r="C587" s="2">
+        <x:v>43871.4181134259</x:v>
+      </x:c>
+      <x:c r="D587" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E587" s="10" t="s"/>
+      <x:c r="F587"/>
+      <x:c r="G587" s="10" t="s"/>
+      <x:c r="H587" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I587"/>
+      <x:c r="J587" s="10" t="s"/>
+      <x:c r="K587" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L587"/>
+      <x:c r="M587" s="10" t="s"/>
+      <x:c r="N587" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O587"/>
+      <x:c r="P587" s="10" t="s"/>
+      <x:c r="Q587" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R587"/>
+      <x:c r="S587" s="10" t="s"/>
+      <x:c r="T587" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U587"/>
+      <x:c r="V587" s="10" t="s"/>
+      <x:c r="W587" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X587"/>
+      <x:c r="Y587" s="10" t="s"/>
+      <x:c r="Z587" s="10" t="s"/>
+      <x:c r="AA587"/>
+      <x:c r="AB587" s="10" t="s"/>
+      <x:c r="AC587" s="10" t="s"/>
+      <x:c r="AD587"/>
+      <x:c r="AE587" s="10" t="s"/>
+      <x:c r="AF587" s="10" t="s"/>
+      <x:c r="AG587"/>
+      <x:c r="AH587" s="10" t="s"/>
+      <x:c r="AI587" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ587"/>
+      <x:c r="AK587" s="10" t="s"/>
+    </x:row>
+    <x:row r="588" hidden="0">
+      <x:c r="A588">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B588" s="2">
+        <x:v>43871.4181481481</x:v>
+      </x:c>
+      <x:c r="C588" s="2">
+        <x:v>43871.4615393518</x:v>
+      </x:c>
+      <x:c r="D588" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E588" s="10" t="s"/>
+      <x:c r="F588"/>
+      <x:c r="G588" s="10" t="s"/>
+      <x:c r="H588" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I588"/>
+      <x:c r="J588" s="10" t="s"/>
+      <x:c r="K588" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L588"/>
+      <x:c r="M588" s="10" t="s"/>
+      <x:c r="N588" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O588"/>
+      <x:c r="P588" s="10" t="s"/>
+      <x:c r="Q588" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R588"/>
+      <x:c r="S588" s="10" t="s"/>
+      <x:c r="T588" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U588"/>
+      <x:c r="V588" s="10" t="s"/>
+      <x:c r="W588" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X588"/>
+      <x:c r="Y588" s="10" t="s"/>
+      <x:c r="Z588" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA588"/>
+      <x:c r="AB588" s="10" t="s"/>
+      <x:c r="AC588" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD588"/>
+      <x:c r="AE588" s="10" t="s"/>
+      <x:c r="AF588" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG588"/>
+      <x:c r="AH588" s="10" t="s"/>
+      <x:c r="AI588" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AJ588"/>
+      <x:c r="AK588" s="10" t="s"/>
+    </x:row>
+    <x:row r="589" hidden="0">
+      <x:c r="A589">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B589" s="2">
+        <x:v>43871.4616782407</x:v>
+      </x:c>
+      <x:c r="C589" s="2">
+        <x:v>43871.5</x:v>
+      </x:c>
+      <x:c r="D589" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E589" s="10" t="s"/>
+      <x:c r="F589"/>
+      <x:c r="G589" s="10" t="s"/>
+      <x:c r="H589" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I589"/>
+      <x:c r="J589" s="10" t="s"/>
+      <x:c r="K589" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L589"/>
+      <x:c r="M589" s="10" t="s"/>
+      <x:c r="N589" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O589"/>
+      <x:c r="P589" s="10" t="s"/>
+      <x:c r="Q589" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R589"/>
+      <x:c r="S589" s="10" t="s"/>
+      <x:c r="T589" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U589"/>
+      <x:c r="V589" s="10" t="s"/>
+      <x:c r="W589" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X589"/>
+      <x:c r="Y589" s="10" t="s"/>
+      <x:c r="Z589" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA589"/>
+      <x:c r="AB589" s="10" t="s"/>
+      <x:c r="AC589" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD589"/>
+      <x:c r="AE589" s="10" t="s"/>
+      <x:c r="AF589" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG589"/>
+      <x:c r="AH589" s="10" t="s"/>
+      <x:c r="AI589" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ589"/>
+      <x:c r="AK589" s="10" t="s"/>
+    </x:row>
+    <x:row r="590" hidden="0">
+      <x:c r="A590">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B590" s="2">
+        <x:v>43871.5000462963</x:v>
+      </x:c>
+      <x:c r="C590" s="2">
+        <x:v>43871.5458449074</x:v>
+      </x:c>
+      <x:c r="D590" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E590" s="10" t="s"/>
+      <x:c r="F590"/>
+      <x:c r="G590" s="10" t="s"/>
+      <x:c r="H590" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I590"/>
+      <x:c r="J590" s="10" t="s"/>
+      <x:c r="K590" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L590"/>
+      <x:c r="M590" s="10" t="s"/>
+      <x:c r="N590" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O590"/>
+      <x:c r="P590" s="10" t="s"/>
+      <x:c r="Q590" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R590"/>
+      <x:c r="S590" s="10" t="s"/>
+      <x:c r="T590" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U590"/>
+      <x:c r="V590" s="10" t="s"/>
+      <x:c r="W590" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X590"/>
+      <x:c r="Y590" s="10" t="s"/>
+      <x:c r="Z590" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA590"/>
+      <x:c r="AB590" s="10" t="s"/>
+      <x:c r="AC590" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD590"/>
+      <x:c r="AE590" s="10" t="s"/>
+      <x:c r="AF590" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG590"/>
+      <x:c r="AH590" s="10" t="s"/>
+      <x:c r="AI590" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ590"/>
+      <x:c r="AK590" s="10" t="s"/>
+    </x:row>
+    <x:row r="591" hidden="0">
+      <x:c r="A591">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B591" s="2">
+        <x:v>43871.5458796296</x:v>
+      </x:c>
+      <x:c r="C591" s="2">
+        <x:v>43871.5855324074</x:v>
+      </x:c>
+      <x:c r="D591" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E591" s="10" t="s"/>
+      <x:c r="F591"/>
+      <x:c r="G591" s="10" t="s"/>
+      <x:c r="H591" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I591"/>
+      <x:c r="J591" s="10" t="s"/>
+      <x:c r="K591" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="L591"/>
+      <x:c r="M591" s="10" t="s"/>
+      <x:c r="N591" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O591"/>
+      <x:c r="P591" s="10" t="s"/>
+      <x:c r="Q591" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R591"/>
+      <x:c r="S591" s="10" t="s"/>
+      <x:c r="T591" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U591"/>
+      <x:c r="V591" s="10" t="s"/>
+      <x:c r="W591" s="10" t="s"/>
+      <x:c r="X591"/>
+      <x:c r="Y591" s="10" t="s"/>
+      <x:c r="Z591" s="10" t="s"/>
+      <x:c r="AA591"/>
+      <x:c r="AB591" s="10" t="s"/>
+      <x:c r="AC591" s="10" t="s"/>
+      <x:c r="AD591"/>
+      <x:c r="AE591" s="10" t="s"/>
+      <x:c r="AF591" s="10" t="s"/>
+      <x:c r="AG591"/>
+      <x:c r="AH591" s="10" t="s"/>
+      <x:c r="AI591" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ591"/>
+      <x:c r="AK591" s="10" t="s"/>
+    </x:row>
+    <x:row r="592" hidden="0">
+      <x:c r="A592">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="B592" s="2">
+        <x:v>43871.6218287037</x:v>
+      </x:c>
+      <x:c r="C592" s="2">
+        <x:v>43871.6378356481</x:v>
+      </x:c>
+      <x:c r="D592" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E592" s="10" t="s"/>
+      <x:c r="F592"/>
+      <x:c r="G592" s="10" t="s"/>
+      <x:c r="H592" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I592"/>
+      <x:c r="J592" s="10" t="s"/>
+      <x:c r="K592" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="L592"/>
+      <x:c r="M592" s="10" t="s"/>
+      <x:c r="N592" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O592"/>
+      <x:c r="P592" s="10" t="s"/>
+      <x:c r="Q592" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R592"/>
+      <x:c r="S592" s="10" t="s"/>
+      <x:c r="T592" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U592"/>
+      <x:c r="V592" s="10" t="s"/>
+      <x:c r="W592" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X592"/>
+      <x:c r="Y592" s="10" t="s"/>
+      <x:c r="Z592" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA592"/>
+      <x:c r="AB592" s="10" t="s"/>
+      <x:c r="AC592" s="10" t="s"/>
+      <x:c r="AD592"/>
+      <x:c r="AE592" s="10" t="s"/>
+      <x:c r="AF592" s="10" t="s"/>
+      <x:c r="AG592"/>
+      <x:c r="AH592" s="10" t="s"/>
+      <x:c r="AI592" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AJ592"/>
+      <x:c r="AK592" s="10" t="s"/>
+    </x:row>
+    <x:row r="593" hidden="0">
+      <x:c r="A593">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B593" s="2">
+        <x:v>43871.6378703704</x:v>
+      </x:c>
+      <x:c r="C593" s="2">
+        <x:v>43871.6699074074</x:v>
+      </x:c>
+      <x:c r="D593" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E593" s="10" t="s"/>
+      <x:c r="F593"/>
+      <x:c r="G593" s="10" t="s"/>
+      <x:c r="H593" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I593"/>
+      <x:c r="J593" s="10" t="s"/>
+      <x:c r="K593" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L593"/>
+      <x:c r="M593" s="10" t="s"/>
+      <x:c r="N593" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O593"/>
+      <x:c r="P593" s="10" t="s"/>
+      <x:c r="Q593" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R593"/>
+      <x:c r="S593" s="10" t="s"/>
+      <x:c r="T593" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U593"/>
+      <x:c r="V593" s="10" t="s"/>
+      <x:c r="W593" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X593"/>
+      <x:c r="Y593" s="10" t="s"/>
+      <x:c r="Z593" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA593"/>
+      <x:c r="AB593" s="10" t="s"/>
+      <x:c r="AC593" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AD593"/>
+      <x:c r="AE593" s="10" t="s"/>
+      <x:c r="AF593" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG593"/>
+      <x:c r="AH593" s="10" t="s"/>
+      <x:c r="AI593" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ593"/>
+      <x:c r="AK593" s="10" t="s"/>
+    </x:row>
+    <x:row r="594" hidden="0">
+      <x:c r="A594">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B594" s="2">
+        <x:v>43871.7071643519</x:v>
+      </x:c>
+      <x:c r="C594" s="2">
+        <x:v>43871.7084375</x:v>
+      </x:c>
+      <x:c r="D594" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E594" s="10" t="s"/>
+      <x:c r="F594"/>
+      <x:c r="G594" s="10" t="s"/>
+      <x:c r="H594" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I594"/>
+      <x:c r="J594" s="10" t="s"/>
+      <x:c r="K594" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L594"/>
+      <x:c r="M594" s="10" t="s"/>
+      <x:c r="N594" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="O594"/>
+      <x:c r="P594" s="10" t="s"/>
+      <x:c r="Q594" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R594"/>
+      <x:c r="S594" s="10" t="s"/>
+      <x:c r="T594" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U594"/>
+      <x:c r="V594" s="10" t="s"/>
+      <x:c r="W594" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X594"/>
+      <x:c r="Y594" s="10" t="s"/>
+      <x:c r="Z594" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA594"/>
+      <x:c r="AB594" s="10" t="s"/>
+      <x:c r="AC594" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD594"/>
+      <x:c r="AE594" s="10" t="s"/>
+      <x:c r="AF594" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG594"/>
+      <x:c r="AH594" s="10" t="s"/>
+      <x:c r="AI594" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ594"/>
+      <x:c r="AK594" s="10" t="s"/>
+    </x:row>
+    <x:row r="595" hidden="0">
+      <x:c r="A595">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B595" s="2">
+        <x:v>43871.7084837963</x:v>
+      </x:c>
+      <x:c r="C595" s="2">
+        <x:v>43871.8359606481</x:v>
+      </x:c>
+      <x:c r="D595" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E595" s="10" t="s"/>
+      <x:c r="F595"/>
+      <x:c r="G595" s="10" t="s"/>
+      <x:c r="H595" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I595"/>
+      <x:c r="J595" s="10" t="s"/>
+      <x:c r="K595" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L595"/>
+      <x:c r="M595" s="10" t="s"/>
+      <x:c r="N595" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O595"/>
+      <x:c r="P595" s="10" t="s"/>
+      <x:c r="Q595" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="R595"/>
+      <x:c r="S595" s="10" t="s"/>
+      <x:c r="T595" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U595"/>
+      <x:c r="V595" s="10" t="s"/>
+      <x:c r="W595" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X595"/>
+      <x:c r="Y595" s="10" t="s"/>
+      <x:c r="Z595" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA595"/>
+      <x:c r="AB595" s="10" t="s"/>
+      <x:c r="AC595" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AD595"/>
+      <x:c r="AE595" s="10" t="s"/>
+      <x:c r="AF595" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG595"/>
+      <x:c r="AH595" s="10" t="s"/>
+      <x:c r="AI595" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ595"/>
+      <x:c r="AK595" s="10" t="s"/>
+    </x:row>
+    <x:row r="596" hidden="0">
+      <x:c r="A596">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B596" s="2">
+        <x:v>43871.8731828704</x:v>
+      </x:c>
+      <x:c r="C596" s="2">
+        <x:v>43871.8765740741</x:v>
+      </x:c>
+      <x:c r="D596" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E596" s="10" t="s"/>
+      <x:c r="F596"/>
+      <x:c r="G596" s="10" t="s"/>
+      <x:c r="H596" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I596"/>
+      <x:c r="J596" s="10" t="s"/>
+      <x:c r="K596" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L596"/>
+      <x:c r="M596" s="10" t="s"/>
+      <x:c r="N596" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O596"/>
+      <x:c r="P596" s="10" t="s"/>
+      <x:c r="Q596" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R596"/>
+      <x:c r="S596" s="10" t="s"/>
+      <x:c r="T596" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U596"/>
+      <x:c r="V596" s="10" t="s"/>
+      <x:c r="W596" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X596"/>
+      <x:c r="Y596" s="10" t="s"/>
+      <x:c r="Z596" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA596"/>
+      <x:c r="AB596" s="10" t="s"/>
+      <x:c r="AC596" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD596"/>
+      <x:c r="AE596" s="10" t="s"/>
+      <x:c r="AF596" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AG596"/>
+      <x:c r="AH596" s="10" t="s"/>
+      <x:c r="AI596" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AJ596"/>
+      <x:c r="AK596" s="10" t="s"/>
+    </x:row>
+    <x:row r="597" hidden="0">
+      <x:c r="A597">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B597" s="2">
+        <x:v>43872.3928935185</x:v>
+      </x:c>
+      <x:c r="C597" s="2">
+        <x:v>43872.3938773148</x:v>
+      </x:c>
+      <x:c r="D597" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E597" s="10" t="s"/>
+      <x:c r="F597"/>
+      <x:c r="G597" s="10" t="s"/>
+      <x:c r="H597" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I597"/>
+      <x:c r="J597" s="10" t="s"/>
+      <x:c r="K597" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L597"/>
+      <x:c r="M597" s="10" t="s"/>
+      <x:c r="N597" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O597"/>
+      <x:c r="P597" s="10" t="s"/>
+      <x:c r="Q597" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R597"/>
+      <x:c r="S597" s="10" t="s"/>
+      <x:c r="T597" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U597"/>
+      <x:c r="V597" s="10" t="s"/>
+      <x:c r="W597" s="10" t="s"/>
+      <x:c r="X597"/>
+      <x:c r="Y597" s="10" t="s"/>
+      <x:c r="Z597" s="10" t="s"/>
+      <x:c r="AA597"/>
+      <x:c r="AB597" s="10" t="s"/>
+      <x:c r="AC597" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD597"/>
+      <x:c r="AE597" s="10" t="s"/>
+      <x:c r="AF597" s="10" t="s"/>
+      <x:c r="AG597"/>
+      <x:c r="AH597" s="10" t="s"/>
+      <x:c r="AI597" s="10" t="s"/>
+      <x:c r="AJ597"/>
+      <x:c r="AK597" s="10" t="s"/>
+    </x:row>
+    <x:row r="598" hidden="0">
+      <x:c r="A598">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B598" s="2">
+        <x:v>43872.393900463</x:v>
+      </x:c>
+      <x:c r="C598" s="2">
+        <x:v>43872.3943865741</x:v>
+      </x:c>
+      <x:c r="D598" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E598" s="10" t="s"/>
+      <x:c r="F598"/>
+      <x:c r="G598" s="10" t="s"/>
+      <x:c r="H598" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I598"/>
+      <x:c r="J598" s="10" t="s"/>
+      <x:c r="K598" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L598"/>
+      <x:c r="M598" s="10" t="s"/>
+      <x:c r="N598" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O598"/>
+      <x:c r="P598" s="10" t="s"/>
+      <x:c r="Q598" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R598"/>
+      <x:c r="S598" s="10" t="s"/>
+      <x:c r="T598" s="10" t="s"/>
+      <x:c r="U598"/>
+      <x:c r="V598" s="10" t="s"/>
+      <x:c r="W598" s="10" t="s"/>
+      <x:c r="X598"/>
+      <x:c r="Y598" s="10" t="s"/>
+      <x:c r="Z598" s="10" t="s"/>
+      <x:c r="AA598"/>
+      <x:c r="AB598" s="10" t="s"/>
+      <x:c r="AC598" s="10" t="s"/>
+      <x:c r="AD598"/>
+      <x:c r="AE598" s="10" t="s"/>
+      <x:c r="AF598" s="10" t="s"/>
+      <x:c r="AG598"/>
+      <x:c r="AH598" s="10" t="s"/>
+      <x:c r="AI598" s="10" t="s"/>
+      <x:c r="AJ598"/>
+      <x:c r="AK598" s="10" t="s"/>
+    </x:row>
+    <x:row r="599" hidden="0">
+      <x:c r="A599">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="B599" s="2">
+        <x:v>43872.3944097222</x:v>
+      </x:c>
+      <x:c r="C599" s="2">
+        <x:v>43872.4177083333</x:v>
+      </x:c>
+      <x:c r="D599" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E599" s="10" t="s"/>
+      <x:c r="F599"/>
+      <x:c r="G599" s="10" t="s"/>
+      <x:c r="H599" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I599"/>
+      <x:c r="J599" s="10" t="s"/>
+      <x:c r="K599" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L599"/>
+      <x:c r="M599" s="10" t="s"/>
+      <x:c r="N599" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O599"/>
+      <x:c r="P599" s="10" t="s"/>
+      <x:c r="Q599" s="10" t="s"/>
+      <x:c r="R599"/>
+      <x:c r="S599" s="10" t="s"/>
+      <x:c r="T599" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U599"/>
+      <x:c r="V599" s="10" t="s"/>
+      <x:c r="W599" s="10" t="s"/>
+      <x:c r="X599"/>
+      <x:c r="Y599" s="10" t="s"/>
+      <x:c r="Z599" s="10" t="s"/>
+      <x:c r="AA599"/>
+      <x:c r="AB599" s="10" t="s"/>
+      <x:c r="AC599" s="10" t="s"/>
+      <x:c r="AD599"/>
+      <x:c r="AE599" s="10" t="s"/>
+      <x:c r="AF599" s="10" t="s"/>
+      <x:c r="AG599"/>
+      <x:c r="AH599" s="10" t="s"/>
+      <x:c r="AI599" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ599"/>
+      <x:c r="AK599" s="10" t="s"/>
+    </x:row>
+    <x:row r="600" hidden="0">
+      <x:c r="A600">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B600" s="2">
+        <x:v>43872.4177430556</x:v>
+      </x:c>
+      <x:c r="C600" s="2">
+        <x:v>43872.460787037</x:v>
+      </x:c>
+      <x:c r="D600" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E600" s="10" t="s"/>
+      <x:c r="F600"/>
+      <x:c r="G600" s="10" t="s"/>
+      <x:c r="H600" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I600"/>
+      <x:c r="J600" s="10" t="s"/>
+      <x:c r="K600" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L600"/>
+      <x:c r="M600" s="10" t="s"/>
+      <x:c r="N600" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O600"/>
+      <x:c r="P600" s="10" t="s"/>
+      <x:c r="Q600" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R600"/>
+      <x:c r="S600" s="10" t="s"/>
+      <x:c r="T600" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U600"/>
+      <x:c r="V600" s="10" t="s"/>
+      <x:c r="W600" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X600"/>
+      <x:c r="Y600" s="10" t="s"/>
+      <x:c r="Z600" s="10" t="s"/>
+      <x:c r="AA600"/>
+      <x:c r="AB600" s="10" t="s"/>
+      <x:c r="AC600" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AD600"/>
+      <x:c r="AE600" s="10" t="s"/>
+      <x:c r="AF600" s="10" t="s"/>
+      <x:c r="AG600"/>
+      <x:c r="AH600" s="10" t="s"/>
+      <x:c r="AI600" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ600"/>
+      <x:c r="AK600" s="10" t="s"/>
+    </x:row>
+    <x:row r="601" hidden="0">
+      <x:c r="A601">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B601" s="2">
+        <x:v>43872.5002777778</x:v>
+      </x:c>
+      <x:c r="C601" s="2">
+        <x:v>43872.5005092593</x:v>
+      </x:c>
+      <x:c r="D601" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E601" s="10" t="s"/>
+      <x:c r="F601"/>
+      <x:c r="G601" s="10" t="s"/>
+      <x:c r="H601" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I601"/>
+      <x:c r="J601" s="10" t="s"/>
+      <x:c r="K601" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L601"/>
+      <x:c r="M601" s="10" t="s"/>
+      <x:c r="N601" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O601"/>
+      <x:c r="P601" s="10" t="s"/>
+      <x:c r="Q601" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R601"/>
+      <x:c r="S601" s="10" t="s"/>
+      <x:c r="T601" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U601"/>
+      <x:c r="V601" s="10" t="s"/>
+      <x:c r="W601" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X601"/>
+      <x:c r="Y601" s="10" t="s"/>
+      <x:c r="Z601" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AA601"/>
+      <x:c r="AB601" s="10" t="s"/>
+      <x:c r="AC601" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD601"/>
+      <x:c r="AE601" s="10" t="s"/>
+      <x:c r="AF601" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AG601"/>
+      <x:c r="AH601" s="10" t="s"/>
+      <x:c r="AI601" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ601"/>
+      <x:c r="AK601" s="10" t="s"/>
+    </x:row>
+    <x:row r="602" hidden="0">
+      <x:c r="A602">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B602" s="2">
+        <x:v>43872.5422337963</x:v>
+      </x:c>
+      <x:c r="C602" s="2">
+        <x:v>43872.5426273148</x:v>
+      </x:c>
+      <x:c r="D602" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E602" s="10" t="s"/>
+      <x:c r="F602"/>
+      <x:c r="G602" s="10" t="s"/>
+      <x:c r="H602" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I602"/>
+      <x:c r="J602" s="10" t="s"/>
+      <x:c r="K602" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L602"/>
+      <x:c r="M602" s="10" t="s"/>
+      <x:c r="N602" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O602"/>
+      <x:c r="P602" s="10" t="s"/>
+      <x:c r="Q602" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R602"/>
+      <x:c r="S602" s="10" t="s"/>
+      <x:c r="T602" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U602"/>
+      <x:c r="V602" s="10" t="s"/>
+      <x:c r="W602" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X602"/>
+      <x:c r="Y602" s="10" t="s"/>
+      <x:c r="Z602" s="10" t="s"/>
+      <x:c r="AA602"/>
+      <x:c r="AB602" s="10" t="s"/>
+      <x:c r="AC602" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AD602"/>
+      <x:c r="AE602" s="10" t="s"/>
+      <x:c r="AF602" s="10" t="s"/>
+      <x:c r="AG602"/>
+      <x:c r="AH602" s="10" t="s"/>
+      <x:c r="AI602" s="10" t="s"/>
+      <x:c r="AJ602"/>
+      <x:c r="AK602" s="10" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R7dab16b8c4864a5f"/>
+    <x:tablePart r:id="Re0c60e255ddb461d"/>
   </x:tableParts>
 </x:worksheet>
 </file>